--- a/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8454335290781857</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.017579276351737</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8706868611864712</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8116396685996091</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.030772363347607</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8734761085430658</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.028799018234881</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8842993960844758</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8265423627712464</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8747165448063071</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.8777090764976387</v>
+      </c>
+      <c r="D3">
+        <v>1.024526212191084</v>
+      </c>
+      <c r="E3">
+        <v>0.8984072649256221</v>
+      </c>
+      <c r="F3">
+        <v>0.8498764483871786</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.036160669603421</v>
+      </c>
+      <c r="J3">
+        <v>0.902196748442793</v>
+      </c>
+      <c r="K3">
+        <v>1.034854605920593</v>
+      </c>
+      <c r="L3">
+        <v>0.9105293095855138</v>
+      </c>
+      <c r="M3">
+        <v>0.8628745457369414</v>
+      </c>
+      <c r="N3">
+        <v>0.9034779713089952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.8955196093597225</v>
+      </c>
+      <c r="D4">
+        <v>1.028505631259723</v>
+      </c>
+      <c r="E4">
+        <v>0.9137370442308049</v>
+      </c>
+      <c r="F4">
+        <v>0.8708648619239491</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.039160101481018</v>
+      </c>
+      <c r="J4">
+        <v>0.9180343866335626</v>
+      </c>
+      <c r="K4">
+        <v>1.038271773399095</v>
+      </c>
+      <c r="L4">
+        <v>0.9250016057408795</v>
+      </c>
+      <c r="M4">
+        <v>0.88281993456523</v>
+      </c>
+      <c r="N4">
+        <v>0.9193381007625979</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9024708086408527</v>
+      </c>
+      <c r="D5">
+        <v>1.030085460367992</v>
+      </c>
+      <c r="E5">
+        <v>0.9197255828216933</v>
+      </c>
+      <c r="F5">
+        <v>0.879039575118894</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.040333393396013</v>
+      </c>
+      <c r="J5">
+        <v>0.9242123142346605</v>
+      </c>
+      <c r="K5">
+        <v>1.039618001409123</v>
+      </c>
+      <c r="L5">
+        <v>0.9306482650097223</v>
+      </c>
+      <c r="M5">
+        <v>0.8905877279240128</v>
+      </c>
+      <c r="N5">
+        <v>0.925524801729508</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9036104952021166</v>
+      </c>
+      <c r="D6">
+        <v>1.030345874460767</v>
+      </c>
+      <c r="E6">
+        <v>0.9207077133481344</v>
+      </c>
+      <c r="F6">
+        <v>0.8803790743265373</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.040525838210121</v>
+      </c>
+      <c r="J6">
+        <v>0.9252250125115221</v>
+      </c>
+      <c r="K6">
+        <v>1.039839340181265</v>
+      </c>
+      <c r="L6">
+        <v>0.9315739419489203</v>
+      </c>
+      <c r="M6">
+        <v>0.8918604854071077</v>
+      </c>
+      <c r="N6">
+        <v>0.9265389381540805</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.8956144090447367</v>
+      </c>
+      <c r="D7">
+        <v>1.028527077758578</v>
+      </c>
+      <c r="E7">
+        <v>0.9138186952786036</v>
+      </c>
+      <c r="F7">
+        <v>0.8709764057176592</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.03917609578647</v>
+      </c>
+      <c r="J7">
+        <v>0.9181186543711466</v>
+      </c>
+      <c r="K7">
+        <v>1.038290088336707</v>
+      </c>
+      <c r="L7">
+        <v>0.9250786221899417</v>
+      </c>
+      <c r="M7">
+        <v>0.8829259298637174</v>
+      </c>
+      <c r="N7">
+        <v>0.919422488170035</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.857140119247655</v>
+      </c>
+      <c r="D8">
+        <v>1.020058350557281</v>
+      </c>
+      <c r="E8">
+        <v>0.8807316215957284</v>
+      </c>
+      <c r="F8">
+        <v>0.8255433623510737</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.032717695566356</v>
+      </c>
+      <c r="J8">
+        <v>0.8838953689511322</v>
+      </c>
+      <c r="K8">
+        <v>1.030973304158261</v>
+      </c>
+      <c r="L8">
+        <v>0.8938126280791077</v>
+      </c>
+      <c r="M8">
+        <v>0.8397517675163421</v>
+      </c>
+      <c r="N8">
+        <v>0.8851506017592587</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D9">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E9">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F9">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J9">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K9">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L9">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M9">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N9">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D10">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E10">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F10">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J10">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K10">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L10">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M10">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N10">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D11">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E11">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F11">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J11">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K11">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L11">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M11">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N11">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D12">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E12">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F12">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J12">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K12">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L12">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M12">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N12">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D13">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E13">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F13">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J13">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K13">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L13">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M13">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N13">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D14">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E14">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F14">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J14">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K14">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L14">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M14">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N14">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D15">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E15">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F15">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J15">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K15">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L15">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M15">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N15">
+        <v>0.77390156999632</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D16">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E16">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F16">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J16">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K16">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L16">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M16">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N16">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D17">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E17">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F17">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J17">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K17">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L17">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M17">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N17">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D18">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E18">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F18">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J18">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K18">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L18">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M18">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N18">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D19">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E19">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F19">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J19">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K19">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L19">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M19">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N19">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D20">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E20">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F20">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J20">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K20">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L20">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M20">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N20">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D21">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E21">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F21">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J21">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K21">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L21">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M21">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N21">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D22">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E22">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F22">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J22">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K22">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L22">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M22">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N22">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D23">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E23">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F23">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J23">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K23">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L23">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M23">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N23">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D24">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E24">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F24">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J24">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K24">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L24">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M24">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N24">
+        <v>0.77390156999632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.7322888456433392</v>
+      </c>
+      <c r="D25">
+        <v>0.996223706672261</v>
+      </c>
+      <c r="E25">
+        <v>0.7743498886192209</v>
+      </c>
+      <c r="F25">
+        <v>0.6737199146572892</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.012842247071244</v>
+      </c>
+      <c r="J25">
+        <v>0.7728040995331138</v>
+      </c>
+      <c r="K25">
+        <v>1.009378350173612</v>
+      </c>
+      <c r="L25">
+        <v>0.7925957269976578</v>
+      </c>
+      <c r="M25">
+        <v>0.6959015536054288</v>
+      </c>
+      <c r="N25">
+        <v>0.77390156999632</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
@@ -417,984 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.8454335290781857</v>
-      </c>
-      <c r="D2">
-        <v>1.017579276351737</v>
+        <v>0.9579485478811425</v>
       </c>
       <c r="E2">
-        <v>0.8706868611864712</v>
+        <v>0.9700542965998483</v>
       </c>
       <c r="F2">
-        <v>0.8116396685996091</v>
+        <v>0.9324254259529806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.030772363347607</v>
-      </c>
       <c r="J2">
-        <v>0.8734761085430658</v>
-      </c>
-      <c r="K2">
-        <v>1.028799018234881</v>
+        <v>0.9814641205734457</v>
       </c>
       <c r="L2">
-        <v>0.8842993960844758</v>
+        <v>0.9819472117454194</v>
       </c>
       <c r="M2">
-        <v>0.8265423627712464</v>
+        <v>0.9449139967932567</v>
       </c>
       <c r="N2">
-        <v>0.8747165448063071</v>
+        <v>0.9975761866928806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.8777090764976387</v>
-      </c>
-      <c r="D3">
-        <v>1.024526212191084</v>
+        <v>0.9633269577642325</v>
       </c>
       <c r="E3">
-        <v>0.8984072649256221</v>
+        <v>0.9743752803874034</v>
       </c>
       <c r="F3">
-        <v>0.8498764483871786</v>
+        <v>0.9407736036627248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.036160669603421</v>
-      </c>
       <c r="J3">
-        <v>0.902196748442793</v>
-      </c>
-      <c r="K3">
-        <v>1.034854605920593</v>
+        <v>0.9848698693453304</v>
       </c>
       <c r="L3">
-        <v>0.9105293095855138</v>
+        <v>0.9853468848820133</v>
       </c>
       <c r="M3">
-        <v>0.8628745457369414</v>
+        <v>0.9522249147171992</v>
       </c>
       <c r="N3">
-        <v>0.9034779713089952</v>
+        <v>0.9987662937553542</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.8955196093597225</v>
-      </c>
-      <c r="D4">
-        <v>1.028505631259723</v>
+        <v>0.966718024260288</v>
       </c>
       <c r="E4">
-        <v>0.9137370442308049</v>
+        <v>0.9771064133042648</v>
       </c>
       <c r="F4">
-        <v>0.8708648619239491</v>
+        <v>0.9460168870968084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.039160101481018</v>
-      </c>
       <c r="J4">
-        <v>0.9180343866335626</v>
-      </c>
-      <c r="K4">
-        <v>1.038271773399095</v>
+        <v>0.987013180602786</v>
       </c>
       <c r="L4">
-        <v>0.9250016057408795</v>
+        <v>0.9874892292024846</v>
       </c>
       <c r="M4">
-        <v>0.88281993456523</v>
+        <v>0.95681367687485</v>
       </c>
       <c r="N4">
-        <v>0.9193381007625979</v>
+        <v>0.9995144411480155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9024708086408527</v>
-      </c>
-      <c r="D5">
-        <v>1.030085460367992</v>
+        <v>0.9681233544498588</v>
       </c>
       <c r="E5">
-        <v>0.9197255828216933</v>
+        <v>0.9782398134791516</v>
       </c>
       <c r="F5">
-        <v>0.879039575118894</v>
+        <v>0.94818554991034</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.040333393396013</v>
-      </c>
       <c r="J5">
-        <v>0.9242123142346605</v>
-      </c>
-      <c r="K5">
-        <v>1.039618001409123</v>
+        <v>0.9879004498249211</v>
       </c>
       <c r="L5">
-        <v>0.9306482650097223</v>
+        <v>0.9883767614277499</v>
       </c>
       <c r="M5">
-        <v>0.8905877279240128</v>
+        <v>0.958710846261091</v>
       </c>
       <c r="N5">
-        <v>0.925524801729508</v>
+        <v>0.9998239402806028</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9036104952021166</v>
-      </c>
-      <c r="D6">
-        <v>1.030345874460767</v>
+        <v>0.9683581560840534</v>
       </c>
       <c r="E6">
-        <v>0.9207077133481344</v>
+        <v>0.9784292711889745</v>
       </c>
       <c r="F6">
-        <v>0.8803790743265373</v>
+        <v>0.9485476538046035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.040525838210121</v>
-      </c>
       <c r="J6">
-        <v>0.9252250125115221</v>
-      </c>
-      <c r="K6">
-        <v>1.039839340181265</v>
+        <v>0.9880486372856181</v>
       </c>
       <c r="L6">
-        <v>0.9315739419489203</v>
+        <v>0.9885250312108023</v>
       </c>
       <c r="M6">
-        <v>0.8918604854071077</v>
+        <v>0.9590275715264017</v>
       </c>
       <c r="N6">
-        <v>0.9265389381540805</v>
+        <v>0.9998756183614796</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.8956144090447367</v>
-      </c>
-      <c r="D7">
-        <v>1.028527077758578</v>
+        <v>0.966736880668812</v>
       </c>
       <c r="E7">
-        <v>0.9138186952786036</v>
+        <v>0.9771216149270423</v>
       </c>
       <c r="F7">
-        <v>0.8709764057176592</v>
+        <v>0.9460460018697395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.03917609578647</v>
-      </c>
       <c r="J7">
-        <v>0.9181186543711466</v>
-      </c>
-      <c r="K7">
-        <v>1.038290088336707</v>
+        <v>0.9870250896064487</v>
       </c>
       <c r="L7">
-        <v>0.9250786221899417</v>
+        <v>0.9875011391399457</v>
       </c>
       <c r="M7">
-        <v>0.8829259298637174</v>
+        <v>0.9568391499295097</v>
       </c>
       <c r="N7">
-        <v>0.919422488170035</v>
+        <v>0.9995185961346694</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.857140119247655</v>
-      </c>
-      <c r="D8">
-        <v>1.020058350557281</v>
+        <v>0.9597853264300787</v>
       </c>
       <c r="E8">
-        <v>0.8807316215957284</v>
+        <v>0.9715284891839452</v>
       </c>
       <c r="F8">
-        <v>0.8255433623510737</v>
+        <v>0.9352810384625578</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.032717695566356</v>
-      </c>
       <c r="J8">
-        <v>0.8838953689511322</v>
-      </c>
-      <c r="K8">
-        <v>1.030973304158261</v>
+        <v>0.9826280558903957</v>
       </c>
       <c r="L8">
-        <v>0.8938126280791077</v>
+        <v>0.9831084545181817</v>
       </c>
       <c r="M8">
-        <v>0.8397517675163421</v>
+        <v>0.9474154113007932</v>
       </c>
       <c r="N8">
-        <v>0.8851506017592587</v>
+        <v>0.9979830733841405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D9">
-        <v>0.996223706672261</v>
+        <v>0.946800786925452</v>
       </c>
       <c r="E9">
-        <v>0.7743498886192209</v>
+        <v>0.9611390090764105</v>
       </c>
       <c r="F9">
-        <v>0.6737199146572892</v>
+        <v>0.9149797869050234</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J9">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K9">
-        <v>1.009378350173612</v>
+        <v>0.9743828972372874</v>
       </c>
       <c r="L9">
-        <v>0.7925957269976578</v>
+        <v>0.9748957002994556</v>
       </c>
       <c r="M9">
-        <v>0.6959015536054288</v>
+        <v>0.9296213473758314</v>
       </c>
       <c r="N9">
-        <v>0.77390156999632</v>
+        <v>0.9950980039690244</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D10">
-        <v>0.996223706672261</v>
+        <v>0.9375684830163679</v>
       </c>
       <c r="E10">
-        <v>0.7743498886192209</v>
+        <v>0.9537959726989976</v>
       </c>
       <c r="F10">
-        <v>0.6737199146572892</v>
+        <v>0.9003622216808119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J10">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K10">
-        <v>1.009378350173612</v>
+        <v>0.968498444439738</v>
       </c>
       <c r="L10">
-        <v>0.7925957269976578</v>
+        <v>0.9690527632806328</v>
       </c>
       <c r="M10">
-        <v>0.6959015536054288</v>
+        <v>0.9167980599729704</v>
       </c>
       <c r="N10">
-        <v>0.77390156999632</v>
+        <v>0.9930363614252332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D11">
-        <v>0.996223706672261</v>
+        <v>0.9334129918157613</v>
       </c>
       <c r="E11">
-        <v>0.7743498886192209</v>
+        <v>0.950502509157197</v>
       </c>
       <c r="F11">
-        <v>0.6737199146572892</v>
+        <v>0.8937254409214521</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J11">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K11">
-        <v>1.009378350173612</v>
+        <v>0.9658444990194032</v>
       </c>
       <c r="L11">
-        <v>0.7925957269976578</v>
+        <v>0.9664224037695213</v>
       </c>
       <c r="M11">
-        <v>0.6959015536054288</v>
+        <v>0.9109744503736822</v>
       </c>
       <c r="N11">
-        <v>0.77390156999632</v>
+        <v>0.9921062302914592</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D12">
-        <v>0.996223706672261</v>
+        <v>0.9318436687476379</v>
       </c>
       <c r="E12">
-        <v>0.7743498886192209</v>
+        <v>0.9492605915504054</v>
       </c>
       <c r="F12">
-        <v>0.6737199146572892</v>
+        <v>0.8912090268062499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J12">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K12">
-        <v>1.009378350173612</v>
+        <v>0.9648414153495262</v>
       </c>
       <c r="L12">
-        <v>0.7925957269976578</v>
+        <v>0.9654290134301793</v>
       </c>
       <c r="M12">
-        <v>0.6959015536054288</v>
+        <v>0.9087662510348526</v>
       </c>
       <c r="N12">
-        <v>0.77390156999632</v>
+        <v>0.9917546603309014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D13">
-        <v>0.996223706672261</v>
+        <v>0.9321814970377231</v>
       </c>
       <c r="E13">
-        <v>0.7743498886192209</v>
+        <v>0.9495278534437017</v>
       </c>
       <c r="F13">
-        <v>0.6737199146572892</v>
+        <v>0.8917512133647502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J13">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K13">
-        <v>1.009378350173612</v>
+        <v>0.9650573866561772</v>
       </c>
       <c r="L13">
-        <v>0.7925957269976578</v>
+        <v>0.9656428616942663</v>
       </c>
       <c r="M13">
-        <v>0.6959015536054288</v>
+        <v>0.909242032538239</v>
       </c>
       <c r="N13">
-        <v>0.77390156999632</v>
+        <v>0.9918303562730495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D14">
-        <v>0.996223706672261</v>
+        <v>0.9332838100880803</v>
       </c>
       <c r="E14">
-        <v>0.7743498886192209</v>
+        <v>0.9504002400164223</v>
       </c>
       <c r="F14">
-        <v>0.6737199146572892</v>
+        <v>0.8935185101102441</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J14">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K14">
-        <v>1.009378350173612</v>
+        <v>0.9657619451119197</v>
       </c>
       <c r="L14">
-        <v>0.7925957269976578</v>
+        <v>0.9663406315248365</v>
       </c>
       <c r="M14">
-        <v>0.6959015536054288</v>
+        <v>0.910792866296985</v>
       </c>
       <c r="N14">
-        <v>0.77390156999632</v>
+        <v>0.992077296237616</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D15">
-        <v>0.996223706672261</v>
+        <v>0.9339594978170856</v>
       </c>
       <c r="E15">
-        <v>0.7743498886192209</v>
+        <v>0.95093523723301</v>
       </c>
       <c r="F15">
-        <v>0.6737199146572892</v>
+        <v>0.8946004490367298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J15">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K15">
-        <v>1.009378350173612</v>
+        <v>0.9661937115615231</v>
       </c>
       <c r="L15">
-        <v>0.7925957269976578</v>
+        <v>0.9667683417611846</v>
       </c>
       <c r="M15">
-        <v>0.6959015536054288</v>
+        <v>0.911742275982192</v>
       </c>
       <c r="N15">
-        <v>0.77390156999632</v>
+        <v>0.9922286241107073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D16">
-        <v>0.996223706672261</v>
+        <v>0.9378407724387507</v>
       </c>
       <c r="E16">
-        <v>0.7743498886192209</v>
+        <v>0.9540120283963394</v>
       </c>
       <c r="F16">
-        <v>0.6737199146572892</v>
+        <v>0.9007957944123277</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J16">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K16">
-        <v>1.009378350173612</v>
+        <v>0.9686722327538855</v>
       </c>
       <c r="L16">
-        <v>0.7925957269976578</v>
+        <v>0.9692251118085196</v>
       </c>
       <c r="M16">
-        <v>0.6959015536054288</v>
+        <v>0.9171784877944084</v>
       </c>
       <c r="N16">
-        <v>0.77390156999632</v>
+        <v>0.9930972651190643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D17">
-        <v>0.996223706672261</v>
+        <v>0.9402317484861816</v>
       </c>
       <c r="E17">
-        <v>0.7743498886192209</v>
+        <v>0.9559105476525892</v>
       </c>
       <c r="F17">
-        <v>0.6737199146572892</v>
+        <v>0.9045963630360886</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J17">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K17">
-        <v>1.009378350173612</v>
+        <v>0.970197664809425</v>
       </c>
       <c r="L17">
-        <v>0.7925957269976578</v>
+        <v>0.9707384608976293</v>
       </c>
       <c r="M17">
-        <v>0.6959015536054288</v>
+        <v>0.9205130491138686</v>
       </c>
       <c r="N17">
-        <v>0.77390156999632</v>
+        <v>0.9936318172378181</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D18">
-        <v>0.996223706672261</v>
+        <v>0.9416112877841711</v>
       </c>
       <c r="E18">
-        <v>0.7743498886192209</v>
+        <v>0.9570070423621523</v>
       </c>
       <c r="F18">
-        <v>0.6737199146572892</v>
+        <v>0.9067839005640492</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J18">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K18">
-        <v>1.009378350173612</v>
+        <v>0.9710773036090239</v>
       </c>
       <c r="L18">
-        <v>0.7925957269976578</v>
+        <v>0.971611586384754</v>
       </c>
       <c r="M18">
-        <v>0.6959015536054288</v>
+        <v>0.9224322143961037</v>
       </c>
       <c r="N18">
-        <v>0.77390156999632</v>
+        <v>0.9939400349889161</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D19">
-        <v>0.996223706672261</v>
+        <v>0.9420791766768882</v>
       </c>
       <c r="E19">
-        <v>0.7743498886192209</v>
+        <v>0.9573791150827974</v>
       </c>
       <c r="F19">
-        <v>0.6737199146572892</v>
+        <v>0.9075249712570822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J19">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K19">
-        <v>1.009378350173612</v>
+        <v>0.971375560099077</v>
       </c>
       <c r="L19">
-        <v>0.7925957269976578</v>
+        <v>0.9719077101529853</v>
       </c>
       <c r="M19">
-        <v>0.6959015536054288</v>
+        <v>0.9230823407694179</v>
       </c>
       <c r="N19">
-        <v>0.77390156999632</v>
+        <v>0.9940445353616926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D20">
-        <v>0.996223706672261</v>
+        <v>0.9399767930007876</v>
       </c>
       <c r="E20">
-        <v>0.7743498886192209</v>
+        <v>0.9557079898553145</v>
       </c>
       <c r="F20">
-        <v>0.6737199146572892</v>
+        <v>0.9041916596615619</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J20">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K20">
-        <v>1.009378350173612</v>
+        <v>0.9700350565044014</v>
       </c>
       <c r="L20">
-        <v>0.7925957269976578</v>
+        <v>0.9705770930920499</v>
       </c>
       <c r="M20">
-        <v>0.6959015536054288</v>
+        <v>0.9201579830381104</v>
       </c>
       <c r="N20">
-        <v>0.77390156999632</v>
+        <v>0.9935748379898327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D21">
-        <v>0.996223706672261</v>
+        <v>0.9329599362337184</v>
       </c>
       <c r="E21">
-        <v>0.7743498886192209</v>
+        <v>0.9501438695077535</v>
       </c>
       <c r="F21">
-        <v>0.6737199146572892</v>
+        <v>0.8929995435326211</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J21">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K21">
-        <v>1.009378350173612</v>
+        <v>0.9655549594400545</v>
       </c>
       <c r="L21">
-        <v>0.7925957269976578</v>
+        <v>0.9661356184022905</v>
       </c>
       <c r="M21">
-        <v>0.6959015536054288</v>
+        <v>0.9103374660523221</v>
       </c>
       <c r="N21">
-        <v>0.77390156999632</v>
+        <v>0.9920047503033089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D22">
-        <v>0.996223706672261</v>
+        <v>0.9283977269170243</v>
       </c>
       <c r="E22">
-        <v>0.7743498886192209</v>
+        <v>0.9465371257653152</v>
       </c>
       <c r="F22">
-        <v>0.6737199146572892</v>
+        <v>0.8856631930077684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J22">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K22">
-        <v>1.009378350173612</v>
+        <v>0.9626372899826152</v>
       </c>
       <c r="L22">
-        <v>0.7925957269976578</v>
+        <v>0.9632476826143533</v>
       </c>
       <c r="M22">
-        <v>0.6959015536054288</v>
+        <v>0.9038996218186306</v>
       </c>
       <c r="N22">
-        <v>0.77390156999632</v>
+        <v>0.9909821383012312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D23">
-        <v>0.996223706672261</v>
+        <v>0.9308312634639994</v>
       </c>
       <c r="E23">
-        <v>0.7743498886192209</v>
+        <v>0.9484599413373763</v>
       </c>
       <c r="F23">
-        <v>0.6737199146572892</v>
+        <v>0.8895826079053327</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J23">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K23">
-        <v>1.009378350173612</v>
+        <v>0.9641940694669813</v>
       </c>
       <c r="L23">
-        <v>0.7925957269976578</v>
+        <v>0.9647881493154242</v>
       </c>
       <c r="M23">
-        <v>0.6959015536054288</v>
+        <v>0.9073390238705025</v>
       </c>
       <c r="N23">
-        <v>0.77390156999632</v>
+        <v>0.9915277712517894</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D24">
-        <v>0.996223706672261</v>
+        <v>0.9400920428482041</v>
       </c>
       <c r="E24">
-        <v>0.7743498886192209</v>
+        <v>0.9557995505175246</v>
       </c>
       <c r="F24">
-        <v>0.6737199146572892</v>
+        <v>0.9043746177757983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J24">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K24">
-        <v>1.009378350173612</v>
+        <v>0.9701085633702363</v>
       </c>
       <c r="L24">
-        <v>0.7925957269976578</v>
+        <v>0.9706500377845867</v>
       </c>
       <c r="M24">
-        <v>0.6959015536054288</v>
+        <v>0.9203185016103148</v>
       </c>
       <c r="N24">
-        <v>0.77390156999632</v>
+        <v>0.9936005954812364</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.7322888456433392</v>
-      </c>
-      <c r="D25">
-        <v>0.996223706672261</v>
+        <v>0.9502525922026223</v>
       </c>
       <c r="E25">
-        <v>0.7743498886192209</v>
+        <v>0.9638937688994605</v>
       </c>
       <c r="F25">
-        <v>0.6737199146572892</v>
+        <v>0.9204038941932779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.012842247071244</v>
-      </c>
       <c r="J25">
-        <v>0.7728040995331138</v>
-      </c>
-      <c r="K25">
-        <v>1.009378350173612</v>
+        <v>0.9765785177966978</v>
       </c>
       <c r="L25">
-        <v>0.7925957269976578</v>
+        <v>0.9770797006583638</v>
       </c>
       <c r="M25">
-        <v>0.6959015536054288</v>
+        <v>0.9343777708368866</v>
       </c>
       <c r="N25">
-        <v>0.77390156999632</v>
+        <v>0.9958668151910698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9579485478811425</v>
+        <v>1.004727430580851</v>
       </c>
       <c r="E2">
-        <v>0.9700542965998483</v>
+        <v>1.007762213487518</v>
       </c>
       <c r="F2">
-        <v>0.9324254259529806</v>
+        <v>1.002867825820396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9814641205734457</v>
+        <v>1.010014891386621</v>
       </c>
       <c r="L2">
-        <v>0.9819472117454194</v>
+        <v>1.010640516912302</v>
       </c>
       <c r="M2">
-        <v>0.9449139967932567</v>
+        <v>1.005761089072324</v>
       </c>
       <c r="N2">
-        <v>0.9975761866928806</v>
+        <v>1.007465362557762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9633269577642325</v>
+        <v>1.005822002272901</v>
       </c>
       <c r="E3">
-        <v>0.9743752803874034</v>
+        <v>1.008694518224989</v>
       </c>
       <c r="F3">
-        <v>0.9407736036627248</v>
+        <v>1.004617363073518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9848698693453304</v>
+        <v>1.010738946473879</v>
       </c>
       <c r="L3">
-        <v>0.9853468848820133</v>
+        <v>1.011375945595149</v>
       </c>
       <c r="M3">
-        <v>0.9522249147171992</v>
+        <v>1.007310333110168</v>
       </c>
       <c r="N3">
-        <v>0.9987662937553542</v>
+        <v>1.007712251451404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.966718024260288</v>
+        <v>1.006530092566826</v>
       </c>
       <c r="E4">
-        <v>0.9771064133042648</v>
+        <v>1.009297975763954</v>
       </c>
       <c r="F4">
-        <v>0.9460168870968084</v>
+        <v>1.005748917304874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.987013180602786</v>
+        <v>1.01120681070201</v>
       </c>
       <c r="L4">
-        <v>0.9874892292024846</v>
+        <v>1.011851397160795</v>
       </c>
       <c r="M4">
-        <v>0.95681367687485</v>
+        <v>1.008311870664741</v>
       </c>
       <c r="N4">
-        <v>0.9995144411480155</v>
+        <v>1.007871580600961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9681233544498588</v>
+        <v>1.006827735276856</v>
       </c>
       <c r="E5">
-        <v>0.9782398134791516</v>
+        <v>1.009551717083348</v>
       </c>
       <c r="F5">
-        <v>0.94818554991034</v>
+        <v>1.00622450955056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9879004498249211</v>
+        <v>1.011403347421962</v>
       </c>
       <c r="L5">
-        <v>0.9883767614277499</v>
+        <v>1.012051177842445</v>
       </c>
       <c r="M5">
-        <v>0.958710846261091</v>
+        <v>1.008732703681972</v>
       </c>
       <c r="N5">
-        <v>0.9998239402806028</v>
+        <v>1.007938461346076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9683581560840534</v>
+        <v>1.006877708613519</v>
       </c>
       <c r="E6">
-        <v>0.9784292711889745</v>
+        <v>1.00959432420678</v>
       </c>
       <c r="F6">
-        <v>0.9485476538046035</v>
+        <v>1.006304357228488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9880486372856181</v>
+        <v>1.011436337855459</v>
       </c>
       <c r="L6">
-        <v>0.9885250312108023</v>
+        <v>1.012084716123469</v>
       </c>
       <c r="M6">
-        <v>0.9590275715264017</v>
+        <v>1.008803351132689</v>
       </c>
       <c r="N6">
-        <v>0.9998756183614796</v>
+        <v>1.007949684992606</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.966736880668812</v>
+        <v>1.00653406983134</v>
       </c>
       <c r="E7">
-        <v>0.9771216149270423</v>
+        <v>1.009301366078558</v>
       </c>
       <c r="F7">
-        <v>0.9460460018697395</v>
+        <v>1.005755272624287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9870250896064487</v>
+        <v>1.01120943743596</v>
       </c>
       <c r="L7">
-        <v>0.9875011391399457</v>
+        <v>1.011854067027955</v>
       </c>
       <c r="M7">
-        <v>0.9568391499295097</v>
+        <v>1.008317494683953</v>
       </c>
       <c r="N7">
-        <v>0.9995185961346694</v>
+        <v>1.007872474662037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9597853264300787</v>
+        <v>1.005097383039582</v>
       </c>
       <c r="E8">
-        <v>0.9715284891839452</v>
+        <v>1.008077250859506</v>
       </c>
       <c r="F8">
-        <v>0.9352810384625578</v>
+        <v>1.003459202297312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9826280558903957</v>
+        <v>1.010259724350782</v>
       </c>
       <c r="L8">
-        <v>0.9831084545181817</v>
+        <v>1.010889146272544</v>
       </c>
       <c r="M8">
-        <v>0.9474154113007932</v>
+        <v>1.006284860424485</v>
       </c>
       <c r="N8">
-        <v>0.9979830733841405</v>
+        <v>1.00754888794167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.946800786925452</v>
+        <v>1.00256433979559</v>
       </c>
       <c r="E9">
-        <v>0.9611390090764105</v>
+        <v>1.005921629741186</v>
       </c>
       <c r="F9">
-        <v>0.9149797869050234</v>
+        <v>0.9994088644037512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9743828972372874</v>
+        <v>1.008581170752678</v>
       </c>
       <c r="L9">
-        <v>0.9748957002994556</v>
+        <v>1.009185553564631</v>
       </c>
       <c r="M9">
-        <v>0.9296213473758314</v>
+        <v>1.002695617146473</v>
       </c>
       <c r="N9">
-        <v>0.9950980039690244</v>
+        <v>1.006975418053119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9375684830163679</v>
+        <v>1.000874535888566</v>
       </c>
       <c r="E10">
-        <v>0.9537959726989976</v>
+        <v>1.004485421829614</v>
       </c>
       <c r="F10">
-        <v>0.9003622216808119</v>
+        <v>0.9967050907846263</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.968498444439738</v>
+        <v>1.007458639509106</v>
       </c>
       <c r="L10">
-        <v>0.9690527632806328</v>
+        <v>1.008047530887223</v>
       </c>
       <c r="M10">
-        <v>0.9167980599729704</v>
+        <v>1.000297222101511</v>
       </c>
       <c r="N10">
-        <v>0.9930363614252332</v>
+        <v>1.006590881253872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9334129918157613</v>
+        <v>1.000142534010965</v>
       </c>
       <c r="E11">
-        <v>0.950502509157197</v>
+        <v>1.003863715011102</v>
       </c>
       <c r="F11">
-        <v>0.8937254409214521</v>
+        <v>0.9955333492795055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9658444990194032</v>
+        <v>1.006971717307853</v>
       </c>
       <c r="L11">
-        <v>0.9664224037695213</v>
+        <v>1.007554189785336</v>
       </c>
       <c r="M11">
-        <v>0.9109744503736822</v>
+        <v>0.9992572510062165</v>
       </c>
       <c r="N11">
-        <v>0.9921062302914592</v>
+        <v>1.006423839134035</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9318436687476379</v>
+        <v>0.9998705868851899</v>
       </c>
       <c r="E12">
-        <v>0.9492605915504054</v>
+        <v>1.003632810757945</v>
       </c>
       <c r="F12">
-        <v>0.8912090268062499</v>
+        <v>0.9950979518761306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9648414153495262</v>
+        <v>1.006790721502815</v>
       </c>
       <c r="L12">
-        <v>0.9654290134301793</v>
+        <v>1.007370853485298</v>
       </c>
       <c r="M12">
-        <v>0.9087662510348526</v>
+        <v>0.9988707312407342</v>
       </c>
       <c r="N12">
-        <v>0.9917546603309014</v>
+        <v>1.006361711295728</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9321814970377231</v>
+        <v>0.9999289227360612</v>
       </c>
       <c r="E13">
-        <v>0.9495278534437017</v>
+        <v>1.003682339386519</v>
       </c>
       <c r="F13">
-        <v>0.8917512133647502</v>
+        <v>0.9951913535466641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9650573866561772</v>
+        <v>1.006829551690842</v>
       </c>
       <c r="L13">
-        <v>0.9656428616942663</v>
+        <v>1.007410183731069</v>
       </c>
       <c r="M13">
-        <v>0.909242032538239</v>
+        <v>0.9989536515352101</v>
       </c>
       <c r="N13">
-        <v>0.9918303562730495</v>
+        <v>1.006375041600458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9332838100880803</v>
+        <v>1.000120055795136</v>
       </c>
       <c r="E14">
-        <v>0.9504002400164223</v>
+        <v>1.003844627887068</v>
       </c>
       <c r="F14">
-        <v>0.8935185101102441</v>
+        <v>0.9954973625354055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9657619451119197</v>
+        <v>1.006956758827764</v>
       </c>
       <c r="L14">
-        <v>0.9663406315248365</v>
+        <v>1.007539036944252</v>
       </c>
       <c r="M14">
-        <v>0.910792866296985</v>
+        <v>0.9992253058768765</v>
       </c>
       <c r="N14">
-        <v>0.992077296237616</v>
+        <v>1.006418705282296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9339594978170856</v>
+        <v>1.000237812589679</v>
       </c>
       <c r="E15">
-        <v>0.95093523723301</v>
+        <v>1.003944622492043</v>
       </c>
       <c r="F15">
-        <v>0.8946004490367298</v>
+        <v>0.9956858831607941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9661937115615231</v>
+        <v>1.007035117889274</v>
       </c>
       <c r="L15">
-        <v>0.9667683417611846</v>
+        <v>1.007618416018253</v>
       </c>
       <c r="M15">
-        <v>0.911742275982192</v>
+        <v>0.9993926505345242</v>
       </c>
       <c r="N15">
-        <v>0.9922286241107073</v>
+        <v>1.006445597173323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9378407724387507</v>
+        <v>1.000923109737314</v>
       </c>
       <c r="E16">
-        <v>0.9540120283963394</v>
+        <v>1.004526686116763</v>
       </c>
       <c r="F16">
-        <v>0.9007957944123277</v>
+        <v>0.9967828335567679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9686722327538855</v>
+        <v>1.007490936651406</v>
       </c>
       <c r="L16">
-        <v>0.9692251118085196</v>
+        <v>1.008080260149639</v>
       </c>
       <c r="M16">
-        <v>0.9171784877944084</v>
+        <v>1.000366210124534</v>
       </c>
       <c r="N16">
-        <v>0.9930972651190643</v>
+        <v>1.006601955966833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9402317484861816</v>
+        <v>1.001352894509747</v>
       </c>
       <c r="E17">
-        <v>0.9559105476525892</v>
+        <v>1.004891846355769</v>
       </c>
       <c r="F17">
-        <v>0.9045963630360886</v>
+        <v>0.9974706483221663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.970197664809425</v>
+        <v>1.007776628254542</v>
       </c>
       <c r="L17">
-        <v>0.9707384608976293</v>
+        <v>1.008369808927889</v>
       </c>
       <c r="M17">
-        <v>0.9205130491138686</v>
+        <v>1.000976502807035</v>
       </c>
       <c r="N17">
-        <v>0.9936318172378181</v>
+        <v>1.006699892041016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9416112877841711</v>
+        <v>1.00160355141928</v>
       </c>
       <c r="E18">
-        <v>0.9570070423621523</v>
+        <v>1.005104855702431</v>
       </c>
       <c r="F18">
-        <v>0.9067839005640492</v>
+        <v>0.9978717443451041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9710773036090239</v>
+        <v>1.007943184624868</v>
       </c>
       <c r="L18">
-        <v>0.971611586384754</v>
+        <v>1.008538642982987</v>
       </c>
       <c r="M18">
-        <v>0.9224322143961037</v>
+        <v>1.001332336979295</v>
       </c>
       <c r="N18">
-        <v>0.9939400349889161</v>
+        <v>1.006756964900417</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9420791766768882</v>
+        <v>1.001689014075675</v>
       </c>
       <c r="E19">
-        <v>0.9573791150827974</v>
+        <v>1.005177489416966</v>
       </c>
       <c r="F19">
-        <v>0.9075249712570822</v>
+        <v>0.9980084920162311</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.971375560099077</v>
+        <v>1.007999962080196</v>
       </c>
       <c r="L19">
-        <v>0.9719077101529853</v>
+        <v>1.008596201784787</v>
       </c>
       <c r="M19">
-        <v>0.9230823407694179</v>
+        <v>1.001453643932614</v>
       </c>
       <c r="N19">
-        <v>0.9940445353616926</v>
+        <v>1.006776416535688</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9399767930007876</v>
+        <v>1.00130678572303</v>
       </c>
       <c r="E20">
-        <v>0.9557079898553145</v>
+        <v>1.004852666315862</v>
       </c>
       <c r="F20">
-        <v>0.9041916596615619</v>
+        <v>0.9973968621890744</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9700350565044014</v>
+        <v>1.007745984820907</v>
       </c>
       <c r="L20">
-        <v>0.9705770930920499</v>
+        <v>1.008338748771612</v>
       </c>
       <c r="M20">
-        <v>0.9201579830381104</v>
+        <v>1.000911038655298</v>
       </c>
       <c r="N20">
-        <v>0.9935748379898327</v>
+        <v>1.006689389768212</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9329599362337184</v>
+        <v>1.000063773251872</v>
       </c>
       <c r="E21">
-        <v>0.9501438695077535</v>
+        <v>1.003796837283647</v>
       </c>
       <c r="F21">
-        <v>0.8929995435326211</v>
+        <v>0.9954072550388527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9655549594400545</v>
+        <v>1.006919303136536</v>
       </c>
       <c r="L21">
-        <v>0.9661356184022905</v>
+        <v>1.007501095313476</v>
       </c>
       <c r="M21">
-        <v>0.9103374660523221</v>
+        <v>0.9991453168265776</v>
       </c>
       <c r="N21">
-        <v>0.9920047503033089</v>
+        <v>1.006405849655614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9283977269170243</v>
+        <v>0.9992819567113372</v>
       </c>
       <c r="E22">
-        <v>0.9465371257653152</v>
+        <v>1.00313314137229</v>
       </c>
       <c r="F22">
-        <v>0.8856631930077684</v>
+        <v>0.9941553759467039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9626372899826152</v>
+        <v>1.006398775255052</v>
       </c>
       <c r="L22">
-        <v>0.9632476826143533</v>
+        <v>1.006973922460185</v>
       </c>
       <c r="M22">
-        <v>0.9038996218186306</v>
+        <v>0.9980338120025591</v>
       </c>
       <c r="N22">
-        <v>0.9909821383012312</v>
+        <v>1.006227108057501</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9308312634639994</v>
+        <v>0.9996964405381669</v>
       </c>
       <c r="E23">
-        <v>0.9484599413373763</v>
+        <v>1.003484965928802</v>
       </c>
       <c r="F23">
-        <v>0.8895826079053327</v>
+        <v>0.9948191132268757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9641940694669813</v>
+        <v>1.006674789740151</v>
       </c>
       <c r="L23">
-        <v>0.9647881493154242</v>
+        <v>1.007253435431471</v>
       </c>
       <c r="M23">
-        <v>0.9073390238705025</v>
+        <v>0.9986231708395144</v>
       </c>
       <c r="N23">
-        <v>0.9915277712517894</v>
+        <v>1.006321906973568</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9400920428482041</v>
+        <v>1.001327620389373</v>
       </c>
       <c r="E24">
-        <v>0.9557995505175246</v>
+        <v>1.004870370035164</v>
       </c>
       <c r="F24">
-        <v>0.9043746177757983</v>
+        <v>0.9974302032580513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9701085633702363</v>
+        <v>1.007759831525004</v>
       </c>
       <c r="L24">
-        <v>0.9706500377845867</v>
+        <v>1.008352783688695</v>
       </c>
       <c r="M24">
-        <v>0.9203185016103148</v>
+        <v>1.000940619516848</v>
       </c>
       <c r="N24">
-        <v>0.9936005954812364</v>
+        <v>1.006694135452648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9502525922026223</v>
+        <v>1.003219376118636</v>
       </c>
       <c r="E25">
-        <v>0.9638937688994605</v>
+        <v>1.006478749260445</v>
       </c>
       <c r="F25">
-        <v>0.9204038941932779</v>
+        <v>1.00045655425395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9765785177966978</v>
+        <v>1.009015725207216</v>
       </c>
       <c r="L25">
-        <v>0.9770797006583638</v>
+        <v>1.009626370872034</v>
       </c>
       <c r="M25">
-        <v>0.9343777708368866</v>
+        <v>1.003624464200099</v>
       </c>
       <c r="N25">
-        <v>0.9958668151910698</v>
+        <v>1.007124063766357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.004727430580851</v>
+        <v>0.9579485478811428</v>
       </c>
       <c r="E2">
-        <v>1.007762213487518</v>
+        <v>0.9700542965998485</v>
       </c>
       <c r="F2">
-        <v>1.002867825820396</v>
+        <v>0.9324254259529812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.010014891386621</v>
+        <v>0.981464120573446</v>
       </c>
       <c r="L2">
-        <v>1.010640516912302</v>
+        <v>0.9819472117454195</v>
       </c>
       <c r="M2">
-        <v>1.005761089072324</v>
+        <v>0.9449139967932573</v>
       </c>
       <c r="N2">
-        <v>1.007465362557762</v>
+        <v>0.9975761866928808</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005822002272901</v>
+        <v>0.9633269577642325</v>
       </c>
       <c r="E3">
-        <v>1.008694518224989</v>
+        <v>0.9743752803874033</v>
       </c>
       <c r="F3">
-        <v>1.004617363073518</v>
+        <v>0.9407736036627248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.010738946473879</v>
+        <v>0.9848698693453305</v>
       </c>
       <c r="L3">
-        <v>1.011375945595149</v>
+        <v>0.9853468848820132</v>
       </c>
       <c r="M3">
-        <v>1.007310333110168</v>
+        <v>0.9522249147171992</v>
       </c>
       <c r="N3">
-        <v>1.007712251451404</v>
+        <v>0.9987662937553543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006530092566826</v>
+        <v>0.9667180242602877</v>
       </c>
       <c r="E4">
-        <v>1.009297975763954</v>
+        <v>0.9771064133042651</v>
       </c>
       <c r="F4">
-        <v>1.005748917304874</v>
+        <v>0.9460168870968084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.01120681070201</v>
+        <v>0.9870131806027861</v>
       </c>
       <c r="L4">
-        <v>1.011851397160795</v>
+        <v>0.9874892292024847</v>
       </c>
       <c r="M4">
-        <v>1.008311870664741</v>
+        <v>0.9568136768748501</v>
       </c>
       <c r="N4">
-        <v>1.007871580600961</v>
+        <v>0.9995144411480155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.006827735276856</v>
+        <v>0.9681233544498584</v>
       </c>
       <c r="E5">
-        <v>1.009551717083348</v>
+        <v>0.9782398134791513</v>
       </c>
       <c r="F5">
-        <v>1.00622450955056</v>
+        <v>0.9481855499103395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.011403347421962</v>
+        <v>0.9879004498249209</v>
       </c>
       <c r="L5">
-        <v>1.012051177842445</v>
+        <v>0.9883767614277494</v>
       </c>
       <c r="M5">
-        <v>1.008732703681972</v>
+        <v>0.9587108462610905</v>
       </c>
       <c r="N5">
-        <v>1.007938461346076</v>
+        <v>0.9998239402806026</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006877708613519</v>
+        <v>0.9683581560840535</v>
       </c>
       <c r="E6">
-        <v>1.00959432420678</v>
+        <v>0.9784292711889745</v>
       </c>
       <c r="F6">
-        <v>1.006304357228488</v>
+        <v>0.948547653804604</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.011436337855459</v>
+        <v>0.9880486372856182</v>
       </c>
       <c r="L6">
-        <v>1.012084716123469</v>
+        <v>0.9885250312108023</v>
       </c>
       <c r="M6">
-        <v>1.008803351132689</v>
+        <v>0.9590275715264023</v>
       </c>
       <c r="N6">
-        <v>1.007949684992606</v>
+        <v>0.9998756183614799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00653406983134</v>
+        <v>0.9667368806688119</v>
       </c>
       <c r="E7">
-        <v>1.009301366078558</v>
+        <v>0.9771216149270422</v>
       </c>
       <c r="F7">
-        <v>1.005755272624287</v>
+        <v>0.9460460018697393</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.01120943743596</v>
+        <v>0.9870250896064487</v>
       </c>
       <c r="L7">
-        <v>1.011854067027955</v>
+        <v>0.9875011391399456</v>
       </c>
       <c r="M7">
-        <v>1.008317494683953</v>
+        <v>0.9568391499295096</v>
       </c>
       <c r="N7">
-        <v>1.007872474662037</v>
+        <v>0.9995185961346693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005097383039582</v>
+        <v>0.959785326430079</v>
       </c>
       <c r="E8">
-        <v>1.008077250859506</v>
+        <v>0.9715284891839457</v>
       </c>
       <c r="F8">
-        <v>1.003459202297312</v>
+        <v>0.9352810384625579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.010259724350782</v>
+        <v>0.982628055890396</v>
       </c>
       <c r="L8">
-        <v>1.010889146272544</v>
+        <v>0.9831084545181822</v>
       </c>
       <c r="M8">
-        <v>1.006284860424485</v>
+        <v>0.9474154113007933</v>
       </c>
       <c r="N8">
-        <v>1.00754888794167</v>
+        <v>0.9979830733841407</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00256433979559</v>
+        <v>0.946800786925452</v>
       </c>
       <c r="E9">
-        <v>1.005921629741186</v>
+        <v>0.9611390090764104</v>
       </c>
       <c r="F9">
-        <v>0.9994088644037512</v>
+        <v>0.9149797869050234</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.008581170752678</v>
+        <v>0.9743828972372875</v>
       </c>
       <c r="L9">
-        <v>1.009185553564631</v>
+        <v>0.9748957002994555</v>
       </c>
       <c r="M9">
-        <v>1.002695617146473</v>
+        <v>0.9296213473758314</v>
       </c>
       <c r="N9">
-        <v>1.006975418053119</v>
+        <v>0.9950980039690245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000874535888566</v>
+        <v>0.9375684830163674</v>
       </c>
       <c r="E10">
-        <v>1.004485421829614</v>
+        <v>0.9537959726989969</v>
       </c>
       <c r="F10">
-        <v>0.9967050907846263</v>
+        <v>0.9003622216808117</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.007458639509106</v>
+        <v>0.9684984444397374</v>
       </c>
       <c r="L10">
-        <v>1.008047530887223</v>
+        <v>0.9690527632806322</v>
       </c>
       <c r="M10">
-        <v>1.000297222101511</v>
+        <v>0.91679805997297</v>
       </c>
       <c r="N10">
-        <v>1.006590881253872</v>
+        <v>0.9930363614252331</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000142534010965</v>
+        <v>0.9334129918157615</v>
       </c>
       <c r="E11">
-        <v>1.003863715011102</v>
+        <v>0.9505025091571976</v>
       </c>
       <c r="F11">
-        <v>0.9955333492795055</v>
+        <v>0.8937254409214523</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.006971717307853</v>
+        <v>0.9658444990194035</v>
       </c>
       <c r="L11">
-        <v>1.007554189785336</v>
+        <v>0.9664224037695216</v>
       </c>
       <c r="M11">
-        <v>0.9992572510062165</v>
+        <v>0.9109744503736825</v>
       </c>
       <c r="N11">
-        <v>1.006423839134035</v>
+        <v>0.9921062302914593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9998705868851899</v>
+        <v>0.931843668747638</v>
       </c>
       <c r="E12">
-        <v>1.003632810757945</v>
+        <v>0.9492605915504055</v>
       </c>
       <c r="F12">
-        <v>0.9950979518761306</v>
+        <v>0.8912090268062491</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.006790721502815</v>
+        <v>0.9648414153495262</v>
       </c>
       <c r="L12">
-        <v>1.007370853485298</v>
+        <v>0.9654290134301793</v>
       </c>
       <c r="M12">
-        <v>0.9988707312407342</v>
+        <v>0.9087662510348522</v>
       </c>
       <c r="N12">
-        <v>1.006361711295728</v>
+        <v>0.9917546603309013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999289227360612</v>
+        <v>0.9321814970377234</v>
       </c>
       <c r="E13">
-        <v>1.003682339386519</v>
+        <v>0.9495278534437022</v>
       </c>
       <c r="F13">
-        <v>0.9951913535466641</v>
+        <v>0.8917512133647509</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.006829551690842</v>
+        <v>0.9650573866561775</v>
       </c>
       <c r="L13">
-        <v>1.007410183731069</v>
+        <v>0.9656428616942666</v>
       </c>
       <c r="M13">
-        <v>0.9989536515352101</v>
+        <v>0.9092420325382398</v>
       </c>
       <c r="N13">
-        <v>1.006375041600458</v>
+        <v>0.9918303562730493</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000120055795136</v>
+        <v>0.9332838100880801</v>
       </c>
       <c r="E14">
-        <v>1.003844627887068</v>
+        <v>0.9504002400164223</v>
       </c>
       <c r="F14">
-        <v>0.9954973625354055</v>
+        <v>0.8935185101102437</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.006956758827764</v>
+        <v>0.9657619451119196</v>
       </c>
       <c r="L14">
-        <v>1.007539036944252</v>
+        <v>0.9663406315248364</v>
       </c>
       <c r="M14">
-        <v>0.9992253058768765</v>
+        <v>0.9107928662969847</v>
       </c>
       <c r="N14">
-        <v>1.006418705282296</v>
+        <v>0.9920772962376159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000237812589679</v>
+        <v>0.9339594978170853</v>
       </c>
       <c r="E15">
-        <v>1.003944622492043</v>
+        <v>0.9509352372330095</v>
       </c>
       <c r="F15">
-        <v>0.9956858831607941</v>
+        <v>0.8946004490367294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.007035117889274</v>
+        <v>0.9661937115615231</v>
       </c>
       <c r="L15">
-        <v>1.007618416018253</v>
+        <v>0.9667683417611846</v>
       </c>
       <c r="M15">
-        <v>0.9993926505345242</v>
+        <v>0.9117422759821916</v>
       </c>
       <c r="N15">
-        <v>1.006445597173323</v>
+        <v>0.9922286241107072</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000923109737314</v>
+        <v>0.937840772438751</v>
       </c>
       <c r="E16">
-        <v>1.004526686116763</v>
+        <v>0.9540120283963394</v>
       </c>
       <c r="F16">
-        <v>0.9967828335567679</v>
+        <v>0.9007957944123279</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.007490936651406</v>
+        <v>0.9686722327538856</v>
       </c>
       <c r="L16">
-        <v>1.008080260149639</v>
+        <v>0.9692251118085196</v>
       </c>
       <c r="M16">
-        <v>1.000366210124534</v>
+        <v>0.9171784877944086</v>
       </c>
       <c r="N16">
-        <v>1.006601955966833</v>
+        <v>0.9930972651190643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001352894509747</v>
+        <v>0.9402317484861819</v>
       </c>
       <c r="E17">
-        <v>1.004891846355769</v>
+        <v>0.9559105476525894</v>
       </c>
       <c r="F17">
-        <v>0.9974706483221663</v>
+        <v>0.9045963630360891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.007776628254542</v>
+        <v>0.9701976648094254</v>
       </c>
       <c r="L17">
-        <v>1.008369808927889</v>
+        <v>0.9707384608976295</v>
       </c>
       <c r="M17">
-        <v>1.000976502807035</v>
+        <v>0.9205130491138691</v>
       </c>
       <c r="N17">
-        <v>1.006699892041016</v>
+        <v>0.9936318172378181</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00160355141928</v>
+        <v>0.9416112877841707</v>
       </c>
       <c r="E18">
-        <v>1.005104855702431</v>
+        <v>0.9570070423621519</v>
       </c>
       <c r="F18">
-        <v>0.9978717443451041</v>
+        <v>0.9067839005640488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.007943184624868</v>
+        <v>0.9710773036090237</v>
       </c>
       <c r="L18">
-        <v>1.008538642982987</v>
+        <v>0.9716115863847534</v>
       </c>
       <c r="M18">
-        <v>1.001332336979295</v>
+        <v>0.9224322143961032</v>
       </c>
       <c r="N18">
-        <v>1.006756964900417</v>
+        <v>0.993940034988916</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001689014075675</v>
+        <v>0.9420791766768886</v>
       </c>
       <c r="E19">
-        <v>1.005177489416966</v>
+        <v>0.9573791150827979</v>
       </c>
       <c r="F19">
-        <v>0.9980084920162311</v>
+        <v>0.9075249712570828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.007999962080196</v>
+        <v>0.9713755600990772</v>
       </c>
       <c r="L19">
-        <v>1.008596201784787</v>
+        <v>0.9719077101529856</v>
       </c>
       <c r="M19">
-        <v>1.001453643932614</v>
+        <v>0.9230823407694183</v>
       </c>
       <c r="N19">
-        <v>1.006776416535688</v>
+        <v>0.9940445353616926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00130678572303</v>
+        <v>0.9399767930007874</v>
       </c>
       <c r="E20">
-        <v>1.004852666315862</v>
+        <v>0.955707989855314</v>
       </c>
       <c r="F20">
-        <v>0.9973968621890744</v>
+        <v>0.9041916596615617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.007745984820907</v>
+        <v>0.970035056504401</v>
       </c>
       <c r="L20">
-        <v>1.008338748771612</v>
+        <v>0.9705770930920496</v>
       </c>
       <c r="M20">
-        <v>1.000911038655298</v>
+        <v>0.9201579830381102</v>
       </c>
       <c r="N20">
-        <v>1.006689389768212</v>
+        <v>0.9935748379898326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000063773251872</v>
+        <v>0.9329599362337181</v>
       </c>
       <c r="E21">
-        <v>1.003796837283647</v>
+        <v>0.9501438695077533</v>
       </c>
       <c r="F21">
-        <v>0.9954072550388527</v>
+        <v>0.8929995435326208</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.006919303136536</v>
+        <v>0.9655549594400543</v>
       </c>
       <c r="L21">
-        <v>1.007501095313476</v>
+        <v>0.9661356184022902</v>
       </c>
       <c r="M21">
-        <v>0.9991453168265776</v>
+        <v>0.9103374660523217</v>
       </c>
       <c r="N21">
-        <v>1.006405849655614</v>
+        <v>0.992004750303309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9992819567113372</v>
+        <v>0.9283977269170242</v>
       </c>
       <c r="E22">
-        <v>1.00313314137229</v>
+        <v>0.946537125765315</v>
       </c>
       <c r="F22">
-        <v>0.9941553759467039</v>
+        <v>0.8856631930077686</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.006398775255052</v>
+        <v>0.9626372899826152</v>
       </c>
       <c r="L22">
-        <v>1.006973922460185</v>
+        <v>0.9632476826143532</v>
       </c>
       <c r="M22">
-        <v>0.9980338120025591</v>
+        <v>0.9038996218186309</v>
       </c>
       <c r="N22">
-        <v>1.006227108057501</v>
+        <v>0.9909821383012311</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9996964405381669</v>
+        <v>0.9308312634639994</v>
       </c>
       <c r="E23">
-        <v>1.003484965928802</v>
+        <v>0.9484599413373761</v>
       </c>
       <c r="F23">
-        <v>0.9948191132268757</v>
+        <v>0.8895826079053337</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.006674789740151</v>
+        <v>0.9641940694669813</v>
       </c>
       <c r="L23">
-        <v>1.007253435431471</v>
+        <v>0.964788149315424</v>
       </c>
       <c r="M23">
-        <v>0.9986231708395144</v>
+        <v>0.9073390238705035</v>
       </c>
       <c r="N23">
-        <v>1.006321906973568</v>
+        <v>0.9915277712517894</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001327620389373</v>
+        <v>0.9400920428482047</v>
       </c>
       <c r="E24">
-        <v>1.004870370035164</v>
+        <v>0.9557995505175247</v>
       </c>
       <c r="F24">
-        <v>0.9974302032580513</v>
+        <v>0.9043746177757991</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.007759831525004</v>
+        <v>0.9701085633702365</v>
       </c>
       <c r="L24">
-        <v>1.008352783688695</v>
+        <v>0.9706500377845867</v>
       </c>
       <c r="M24">
-        <v>1.000940619516848</v>
+        <v>0.9203185016103155</v>
       </c>
       <c r="N24">
-        <v>1.006694135452648</v>
+        <v>0.9936005954812365</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.003219376118636</v>
+        <v>0.950252592202622</v>
       </c>
       <c r="E25">
-        <v>1.006478749260445</v>
+        <v>0.9638937688994601</v>
       </c>
       <c r="F25">
-        <v>1.00045655425395</v>
+        <v>0.9204038941932776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.009015725207216</v>
+        <v>0.9765785177966975</v>
       </c>
       <c r="L25">
-        <v>1.009626370872034</v>
+        <v>0.9770797006583634</v>
       </c>
       <c r="M25">
-        <v>1.003624464200099</v>
+        <v>0.9343777708368864</v>
       </c>
       <c r="N25">
-        <v>1.007124063766357</v>
+        <v>0.9958668151910696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,701 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9579485478811428</v>
+        <v>0.9972374019726467</v>
+      </c>
+      <c r="D2">
+        <v>1.036003747471444</v>
       </c>
       <c r="E2">
-        <v>0.9700542965998485</v>
+        <v>1.003884061279655</v>
       </c>
       <c r="F2">
-        <v>0.9324254259529812</v>
+        <v>1.015425506500364</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.049296328150333</v>
+      </c>
       <c r="J2">
-        <v>0.981464120573446</v>
+        <v>1.019501057012765</v>
+      </c>
+      <c r="K2">
+        <v>1.046983285002358</v>
       </c>
       <c r="L2">
-        <v>0.9819472117454195</v>
+        <v>1.01528954888168</v>
       </c>
       <c r="M2">
-        <v>0.9449139967932573</v>
+        <v>1.026674042388066</v>
       </c>
       <c r="N2">
-        <v>0.9975761866928808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009962388844089</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029683023184508</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044291520982768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9633269577642325</v>
+        <v>1.002204836716088</v>
+      </c>
+      <c r="D3">
+        <v>1.038096701941951</v>
       </c>
       <c r="E3">
-        <v>0.9743752803874033</v>
+        <v>1.007896301116204</v>
       </c>
       <c r="F3">
-        <v>0.9407736036627248</v>
+        <v>1.018984073062005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.050519165858558</v>
+      </c>
       <c r="J3">
-        <v>0.9848698693453305</v>
+        <v>1.022635575589676</v>
+      </c>
+      <c r="K3">
+        <v>1.048264272453394</v>
       </c>
       <c r="L3">
-        <v>0.9853468848820132</v>
+        <v>1.018429134516953</v>
       </c>
       <c r="M3">
-        <v>0.9522249147171992</v>
+        <v>1.029379677365086</v>
       </c>
       <c r="N3">
-        <v>0.9987662937553543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01106066040878</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031824381340129</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045194630458078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9667180242602877</v>
+        <v>1.005342128701761</v>
+      </c>
+      <c r="D4">
+        <v>1.039427142386743</v>
       </c>
       <c r="E4">
-        <v>0.9771064133042651</v>
+        <v>1.010435970425743</v>
       </c>
       <c r="F4">
-        <v>0.9460168870968084</v>
+        <v>1.021243018251115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.051280597674352</v>
+      </c>
       <c r="J4">
-        <v>0.9870131806027861</v>
+        <v>1.024610162459621</v>
+      </c>
+      <c r="K4">
+        <v>1.049071910817976</v>
       </c>
       <c r="L4">
-        <v>0.9874892292024847</v>
+        <v>1.020410053271429</v>
       </c>
       <c r="M4">
-        <v>0.9568136768748501</v>
+        <v>1.03109164490368</v>
       </c>
       <c r="N4">
-        <v>0.9995144411480155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01175217042077</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033179304119836</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045766579116436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9681233544498584</v>
+        <v>1.006644294204325</v>
+      </c>
+      <c r="D5">
+        <v>1.039986661480232</v>
       </c>
       <c r="E5">
-        <v>0.9782398134791513</v>
+        <v>1.011491848038121</v>
       </c>
       <c r="F5">
-        <v>0.9481855499103395</v>
+        <v>1.022183020806676</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.0515956389933</v>
+      </c>
       <c r="J5">
-        <v>0.9879004498249209</v>
+        <v>1.025428806241894</v>
+      </c>
+      <c r="K5">
+        <v>1.049412177699287</v>
       </c>
       <c r="L5">
-        <v>0.9883767614277494</v>
+        <v>1.021232354665375</v>
       </c>
       <c r="M5">
-        <v>0.9587108462610905</v>
+        <v>1.031802811418458</v>
       </c>
       <c r="N5">
-        <v>0.9998239402806026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012039687255694</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033742150301999</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046014285144101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9683581560840535</v>
+        <v>1.006863085890821</v>
+      </c>
+      <c r="D6">
+        <v>1.040087269261998</v>
       </c>
       <c r="E6">
-        <v>0.9784292711889745</v>
+        <v>1.011669890223487</v>
       </c>
       <c r="F6">
-        <v>0.948547653804604</v>
+        <v>1.022340777446936</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.0516504376602</v>
+      </c>
       <c r="J6">
-        <v>0.9880486372856182</v>
+        <v>1.025566687354839</v>
+      </c>
+      <c r="K6">
+        <v>1.049475932291446</v>
       </c>
       <c r="L6">
-        <v>0.9885250312108023</v>
+        <v>1.021371237453975</v>
       </c>
       <c r="M6">
-        <v>0.9590275715264023</v>
+        <v>1.031922203721227</v>
       </c>
       <c r="N6">
-        <v>0.9998756183614799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012089224915007</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033836642195206</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046068038414026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9667368806688119</v>
+        <v>1.005362694835808</v>
+      </c>
+      <c r="D7">
+        <v>1.039453293188816</v>
       </c>
       <c r="E7">
-        <v>0.9771216149270422</v>
+        <v>1.010454162924664</v>
       </c>
       <c r="F7">
-        <v>0.9460460018697393</v>
+        <v>1.021256956720377</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.051290936012081</v>
+      </c>
       <c r="J7">
-        <v>0.9870250896064487</v>
+        <v>1.024624169184093</v>
+      </c>
+      <c r="K7">
+        <v>1.049094925092033</v>
       </c>
       <c r="L7">
-        <v>0.9875011391399456</v>
+        <v>1.020425072135583</v>
       </c>
       <c r="M7">
-        <v>0.9568391499295096</v>
+        <v>1.031102506003437</v>
       </c>
       <c r="N7">
-        <v>0.9995185961346693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011760142270848</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033187900040507</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045802801916794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.959785326430079</v>
+        <v>0.9989361408067395</v>
+      </c>
+      <c r="D8">
+        <v>1.036738838198286</v>
       </c>
       <c r="E8">
-        <v>0.9715284891839457</v>
+        <v>1.005256941352923</v>
       </c>
       <c r="F8">
-        <v>0.9352810384625579</v>
+        <v>1.016638979218985</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.049723038841991</v>
+      </c>
       <c r="J8">
-        <v>0.982628055890396</v>
+        <v>1.020575248429361</v>
+      </c>
+      <c r="K8">
+        <v>1.047443133083052</v>
       </c>
       <c r="L8">
-        <v>0.9831084545181822</v>
+        <v>1.016366171793083</v>
       </c>
       <c r="M8">
-        <v>0.9474154113007933</v>
+        <v>1.027598184853535</v>
       </c>
       <c r="N8">
-        <v>0.9979830733841407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010342853674245</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030414430794522</v>
+      </c>
+      <c r="Q8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.044639393194948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.946800786925452</v>
+        <v>0.9869838938552905</v>
+      </c>
+      <c r="D9">
+        <v>1.031736180149977</v>
       </c>
       <c r="E9">
-        <v>0.9611390090764104</v>
+        <v>0.9956362963683897</v>
       </c>
       <c r="F9">
-        <v>0.9149797869050234</v>
+        <v>1.008146807512473</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.046714431157738</v>
+      </c>
       <c r="J9">
-        <v>0.9743828972372875</v>
+        <v>1.013004807919275</v>
+      </c>
+      <c r="K9">
+        <v>1.044334520606733</v>
       </c>
       <c r="L9">
-        <v>0.9748957002994555</v>
+        <v>1.008800570606891</v>
       </c>
       <c r="M9">
-        <v>0.9296213473758314</v>
+        <v>1.021109076941043</v>
       </c>
       <c r="N9">
-        <v>0.9950980039690245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007685207824648</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025278644654368</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042438284921622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9375684830163674</v>
+        <v>0.9787412652055532</v>
+      </c>
+      <c r="D10">
+        <v>1.028317804364761</v>
       </c>
       <c r="E10">
-        <v>0.9537959726989969</v>
+        <v>0.9890587447773832</v>
       </c>
       <c r="F10">
-        <v>0.9003622216808117</v>
+        <v>1.002589914311417</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.044608452716043</v>
+      </c>
       <c r="J10">
-        <v>0.9684984444397374</v>
+        <v>1.007824482624224</v>
+      </c>
+      <c r="K10">
+        <v>1.042193926837879</v>
       </c>
       <c r="L10">
-        <v>0.9690527632806322</v>
+        <v>1.003628397492912</v>
       </c>
       <c r="M10">
-        <v>0.91679805997297</v>
+        <v>1.016912563978013</v>
       </c>
       <c r="N10">
-        <v>0.9930363614252331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005883306553271</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022009793012866</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040941461721114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9334129918157615</v>
+        <v>0.9766179222798194</v>
+      </c>
+      <c r="D11">
+        <v>1.027229764867277</v>
       </c>
       <c r="E11">
-        <v>0.9505025091571976</v>
+        <v>0.9875483968845914</v>
       </c>
       <c r="F11">
-        <v>0.8937254409214523</v>
+        <v>1.00301668493275</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.044220496651807</v>
+      </c>
       <c r="J11">
-        <v>0.9658444990194035</v>
+        <v>1.00699684550259</v>
+      </c>
+      <c r="K11">
+        <v>1.041655810483902</v>
       </c>
       <c r="L11">
-        <v>0.9664224037695216</v>
+        <v>1.002709015492638</v>
       </c>
       <c r="M11">
-        <v>0.9109744503736825</v>
+        <v>1.017881934350608</v>
       </c>
       <c r="N11">
-        <v>0.9921062302914593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005742009420125</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023220983905224</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04059359584268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.931843668747638</v>
+        <v>0.9763693186799905</v>
+      </c>
+      <c r="D12">
+        <v>1.02695016627439</v>
       </c>
       <c r="E12">
-        <v>0.9492605915504055</v>
+        <v>0.9874841398426648</v>
       </c>
       <c r="F12">
-        <v>0.8912090268062491</v>
+        <v>1.0041489370568</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.04426850840611</v>
+      </c>
       <c r="J12">
-        <v>0.9648414153495262</v>
+        <v>1.00720856992348</v>
+      </c>
+      <c r="K12">
+        <v>1.04157863791877</v>
       </c>
       <c r="L12">
-        <v>0.9654290134301793</v>
+        <v>1.002855117465649</v>
       </c>
       <c r="M12">
-        <v>0.9087662510348522</v>
+        <v>1.019197079324893</v>
       </c>
       <c r="N12">
-        <v>0.9917546603309013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005929990965338</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024592514639628</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040539033109186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9321814970377234</v>
+        <v>0.9775415446667739</v>
+      </c>
+      <c r="D13">
+        <v>1.027291476665531</v>
       </c>
       <c r="E13">
-        <v>0.9495278534437022</v>
+        <v>0.9885228417170939</v>
       </c>
       <c r="F13">
-        <v>0.8917512133647509</v>
+        <v>1.005917106336751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.044662162282213</v>
+      </c>
       <c r="J13">
-        <v>0.9650573866561775</v>
+        <v>1.008231542438669</v>
+      </c>
+      <c r="K13">
+        <v>1.041871506205958</v>
       </c>
       <c r="L13">
-        <v>0.9656428616942666</v>
+        <v>1.003828493928318</v>
       </c>
       <c r="M13">
-        <v>0.9092420325382398</v>
+        <v>1.020888159062949</v>
       </c>
       <c r="N13">
-        <v>0.9918303562730493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006386611585393</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026209672937086</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040743623858897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9332838100880801</v>
+        <v>0.9789807222183943</v>
+      </c>
+      <c r="D14">
+        <v>1.02780911319738</v>
       </c>
       <c r="E14">
-        <v>0.9504002400164223</v>
+        <v>0.9897279124702324</v>
       </c>
       <c r="F14">
-        <v>0.8935185101102437</v>
+        <v>1.007408467649336</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.045086392957508</v>
+      </c>
       <c r="J14">
-        <v>0.9657619451119196</v>
+        <v>1.009291792802786</v>
+      </c>
+      <c r="K14">
+        <v>1.042241285662339</v>
       </c>
       <c r="L14">
-        <v>0.9663406315248364</v>
+        <v>1.004863407554338</v>
       </c>
       <c r="M14">
-        <v>0.9107928662969847</v>
+        <v>1.022208797964236</v>
       </c>
       <c r="N14">
-        <v>0.9920772962376159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006819526211081</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027428645062223</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041006480065935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9339594978170853</v>
+        <v>0.9796572868488003</v>
+      </c>
+      <c r="D15">
+        <v>1.028079794224663</v>
       </c>
       <c r="E15">
-        <v>0.9509352372330095</v>
+        <v>0.9902775766054364</v>
       </c>
       <c r="F15">
-        <v>0.8946004490367294</v>
+        <v>1.007961710644111</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.045272543548757</v>
+      </c>
       <c r="J15">
-        <v>0.9661937115615231</v>
+        <v>1.009745157670391</v>
+      </c>
+      <c r="K15">
+        <v>1.042421809727123</v>
       </c>
       <c r="L15">
-        <v>0.9667683417611846</v>
+        <v>1.00531224068495</v>
       </c>
       <c r="M15">
-        <v>0.9117422759821916</v>
+        <v>1.02266392446566</v>
       </c>
       <c r="N15">
-        <v>0.9922286241107072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00699130190884</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027826235156396</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04113994064228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.937840772438751</v>
+        <v>0.982889088579742</v>
+      </c>
+      <c r="D16">
+        <v>1.029454151873478</v>
       </c>
       <c r="E16">
-        <v>0.9540120283963394</v>
+        <v>0.9928264987404261</v>
       </c>
       <c r="F16">
-        <v>0.9007957944123279</v>
+        <v>1.009999686060582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.046091483427775</v>
+      </c>
       <c r="J16">
-        <v>0.9686722327538856</v>
+        <v>1.011719414163484</v>
+      </c>
+      <c r="K16">
+        <v>1.043276037459169</v>
       </c>
       <c r="L16">
-        <v>0.9692251118085196</v>
+        <v>1.00728942965283</v>
       </c>
       <c r="M16">
-        <v>0.9171784877944086</v>
+        <v>1.024154555714727</v>
       </c>
       <c r="N16">
-        <v>0.9930972651190643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007657825139651</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.02896536471011</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041747045621346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9402317484861819</v>
+        <v>0.9846280835857493</v>
+      </c>
+      <c r="D17">
+        <v>1.030243739095679</v>
       </c>
       <c r="E17">
-        <v>0.9559105476525894</v>
+        <v>0.9941645126799432</v>
       </c>
       <c r="F17">
-        <v>0.9045963630360891</v>
+        <v>1.010790811972284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.046499868576028</v>
+      </c>
       <c r="J17">
-        <v>0.9701976648094254</v>
+        <v>1.01269007329058</v>
+      </c>
+      <c r="K17">
+        <v>1.043741481843914</v>
       </c>
       <c r="L17">
-        <v>0.9707384608976295</v>
+        <v>1.008275638651891</v>
       </c>
       <c r="M17">
-        <v>0.9205130491138691</v>
+        <v>1.024612248044115</v>
       </c>
       <c r="N17">
-        <v>0.9936318172378181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00794663496203</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029196917818917</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042078697016475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9416112877841707</v>
+        <v>0.98518376557164</v>
+      </c>
+      <c r="D18">
+        <v>1.030576455391519</v>
       </c>
       <c r="E18">
-        <v>0.9570070423621519</v>
+        <v>0.9945243283899222</v>
       </c>
       <c r="F18">
-        <v>0.9067839005640488</v>
+        <v>1.010402933734344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.046568306790109</v>
+      </c>
       <c r="J18">
-        <v>0.9710773036090237</v>
+        <v>1.012818439127419</v>
+      </c>
+      <c r="K18">
+        <v>1.043887476697884</v>
       </c>
       <c r="L18">
-        <v>0.9716115863847534</v>
+        <v>1.00843825321971</v>
       </c>
       <c r="M18">
-        <v>0.9224322143961032</v>
+        <v>1.024044482964855</v>
       </c>
       <c r="N18">
-        <v>0.993940034988916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00790755929317</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028507835340799</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042170372749911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9420791766768886</v>
+        <v>0.9846125464661148</v>
+      </c>
+      <c r="D19">
+        <v>1.030503275164191</v>
       </c>
       <c r="E19">
-        <v>0.9573791150827979</v>
+        <v>0.9939525223634318</v>
       </c>
       <c r="F19">
-        <v>0.9075249712570828</v>
+        <v>1.008826453603939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.046318492989581</v>
+      </c>
       <c r="J19">
-        <v>0.9713755600990772</v>
+        <v>1.012131637806399</v>
+      </c>
+      <c r="K19">
+        <v>1.043753629949761</v>
       </c>
       <c r="L19">
-        <v>0.9719077101529856</v>
+        <v>1.007811357222113</v>
       </c>
       <c r="M19">
-        <v>0.9230823407694183</v>
+        <v>1.022430814952628</v>
       </c>
       <c r="N19">
-        <v>0.9940445353616926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007563015304506</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026902061402162</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042082085830042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9399767930007874</v>
+        <v>0.9808986054319825</v>
+      </c>
+      <c r="D20">
+        <v>1.029248547967006</v>
       </c>
       <c r="E20">
-        <v>0.955707989855314</v>
+        <v>0.9907829747957645</v>
       </c>
       <c r="F20">
-        <v>0.9041916596615617</v>
+        <v>1.004048565444258</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.045174939561573</v>
+      </c>
       <c r="J20">
-        <v>0.970035056504401</v>
+        <v>1.009186243552328</v>
+      </c>
+      <c r="K20">
+        <v>1.042795881292659</v>
       </c>
       <c r="L20">
-        <v>0.9705770930920496</v>
+        <v>1.00498985406599</v>
       </c>
       <c r="M20">
-        <v>0.9201579830381102</v>
+        <v>1.018020597323033</v>
       </c>
       <c r="N20">
-        <v>0.9935748379898326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00636702703751</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022875940426939</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041408820267662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9329599362337181</v>
+        <v>0.9743614901589635</v>
+      </c>
+      <c r="D21">
+        <v>1.026593023532206</v>
       </c>
       <c r="E21">
-        <v>0.9501438695077533</v>
+        <v>0.9855466082529973</v>
       </c>
       <c r="F21">
-        <v>0.8929995435326208</v>
+        <v>0.9993017871434435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.043453071201819</v>
+      </c>
       <c r="J21">
-        <v>0.9655549594400543</v>
+        <v>1.004971681694285</v>
+      </c>
+      <c r="K21">
+        <v>1.041087509920882</v>
       </c>
       <c r="L21">
-        <v>0.9661356184022902</v>
+        <v>1.000807077682673</v>
       </c>
       <c r="M21">
-        <v>0.9103374660523217</v>
+        <v>1.01429639946615</v>
       </c>
       <c r="N21">
-        <v>0.992004750303309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004873013076185</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.019886728638576</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040204154297282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9283977269170242</v>
+        <v>0.9702290512826061</v>
+      </c>
+      <c r="D22">
+        <v>1.02489838931025</v>
       </c>
       <c r="E22">
-        <v>0.946537125765315</v>
+        <v>0.9822538990467282</v>
       </c>
       <c r="F22">
-        <v>0.8856631930077686</v>
+        <v>0.9964335500373355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.042360318595159</v>
+      </c>
       <c r="J22">
-        <v>0.9626372899826152</v>
+        <v>1.002333906970699</v>
+      </c>
+      <c r="K22">
+        <v>1.039992231004278</v>
       </c>
       <c r="L22">
-        <v>0.9632476826143532</v>
+        <v>0.9981853018553731</v>
       </c>
       <c r="M22">
-        <v>0.9038996218186309</v>
+        <v>1.012075991634118</v>
       </c>
       <c r="N22">
-        <v>0.9909821383012311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003941907591375</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018129370188073</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03941634437314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9308312634639994</v>
+        <v>0.9724292209134623</v>
+      </c>
+      <c r="D23">
+        <v>1.025784584445894</v>
       </c>
       <c r="E23">
-        <v>0.9484599413373761</v>
+        <v>0.9840043182638846</v>
       </c>
       <c r="F23">
-        <v>0.8895826079053337</v>
+        <v>0.9979595438779241</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.042939402062929</v>
+      </c>
       <c r="J23">
-        <v>0.9641940694669813</v>
+        <v>1.003738026864262</v>
+      </c>
+      <c r="K23">
+        <v>1.040560584908859</v>
       </c>
       <c r="L23">
-        <v>0.964788149315424</v>
+        <v>0.9995791206302409</v>
       </c>
       <c r="M23">
-        <v>0.9073390238705035</v>
+        <v>1.013257779736116</v>
       </c>
       <c r="N23">
-        <v>0.9915277712517894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004434013269184</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019064705832171</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039808623393957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.9400920428482047</v>
+        <v>0.9808493897893743</v>
+      </c>
+      <c r="D24">
+        <v>1.029226879678994</v>
       </c>
       <c r="E24">
-        <v>0.9557995505175247</v>
+        <v>0.9907245849105887</v>
       </c>
       <c r="F24">
-        <v>0.9043746177757991</v>
+        <v>1.003832507938508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.045140862738863</v>
+      </c>
       <c r="J24">
-        <v>0.9701085633702365</v>
+        <v>1.009105091456534</v>
+      </c>
+      <c r="K24">
+        <v>1.042759468729018</v>
       </c>
       <c r="L24">
-        <v>0.9706500377845867</v>
+        <v>1.004916569021796</v>
       </c>
       <c r="M24">
-        <v>0.9203185016103155</v>
+        <v>1.017792653065201</v>
       </c>
       <c r="N24">
-        <v>0.9936005954812365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006320513715726</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022653855441423</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041355872151312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.950252592202622</v>
+        <v>0.9901567686717022</v>
+      </c>
+      <c r="D25">
+        <v>1.033081257265694</v>
       </c>
       <c r="E25">
-        <v>0.9638937688994601</v>
+        <v>0.9981870060735598</v>
       </c>
       <c r="F25">
-        <v>0.9204038941932776</v>
+        <v>1.010388482039282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.047529833541247</v>
+      </c>
       <c r="J25">
-        <v>0.9765785177966975</v>
+        <v>1.015019999128787</v>
+      </c>
+      <c r="K25">
+        <v>1.045186851707802</v>
       </c>
       <c r="L25">
-        <v>0.9770797006583634</v>
+        <v>1.010813531785398</v>
       </c>
       <c r="M25">
-        <v>0.9343777708368864</v>
+        <v>1.022827642626216</v>
       </c>
       <c r="N25">
-        <v>0.9958668151910696</v>
+        <v>1.008398338656251</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026638802352216</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043069292473908</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9972374019726467</v>
+        <v>0.9974933888027335</v>
       </c>
       <c r="D2">
-        <v>1.036003747471444</v>
+        <v>1.033259014059594</v>
       </c>
       <c r="E2">
-        <v>1.003884061279655</v>
+        <v>1.0041122800325</v>
       </c>
       <c r="F2">
-        <v>1.015425506500364</v>
+        <v>1.01553640090106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049296328150333</v>
+        <v>1.048305233840918</v>
       </c>
       <c r="J2">
-        <v>1.019501057012765</v>
+        <v>1.019749331534286</v>
       </c>
       <c r="K2">
-        <v>1.046983285002358</v>
+        <v>1.044273656392973</v>
       </c>
       <c r="L2">
-        <v>1.01528954888168</v>
+        <v>1.015514620025757</v>
       </c>
       <c r="M2">
-        <v>1.026674042388066</v>
+        <v>1.026783450481555</v>
       </c>
       <c r="N2">
-        <v>1.009962388844089</v>
+        <v>1.012083798264439</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029683023184508</v>
+        <v>1.029769613675012</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044291520982768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042384317729646</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023837062874858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002204836716088</v>
+        <v>1.002308872756989</v>
       </c>
       <c r="D3">
-        <v>1.038096701941951</v>
+        <v>1.035130854052979</v>
       </c>
       <c r="E3">
-        <v>1.007896301116204</v>
+        <v>1.007990885086138</v>
       </c>
       <c r="F3">
-        <v>1.018984073062005</v>
+        <v>1.019029080952891</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050519165858558</v>
+        <v>1.049409041800618</v>
       </c>
       <c r="J3">
-        <v>1.022635575589676</v>
+        <v>1.022736792856542</v>
       </c>
       <c r="K3">
-        <v>1.048264272453394</v>
+        <v>1.045333126978936</v>
       </c>
       <c r="L3">
-        <v>1.018429134516953</v>
+        <v>1.01852253193995</v>
       </c>
       <c r="M3">
-        <v>1.029379677365086</v>
+        <v>1.029424135776763</v>
       </c>
       <c r="N3">
-        <v>1.01106066040878</v>
+        <v>1.012915469837405</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031824381340129</v>
+        <v>1.031859567621529</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045194630458078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043130523112064</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024019213586319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005342128701761</v>
+        <v>1.005351485719409</v>
       </c>
       <c r="D4">
-        <v>1.039427142386743</v>
+        <v>1.036321948846219</v>
       </c>
       <c r="E4">
-        <v>1.010435970425743</v>
+        <v>1.010447195320655</v>
       </c>
       <c r="F4">
-        <v>1.021243018251115</v>
+        <v>1.021247062769792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051280597674352</v>
+        <v>1.05009537677796</v>
       </c>
       <c r="J4">
-        <v>1.024610162459621</v>
+        <v>1.024619283548274</v>
       </c>
       <c r="K4">
-        <v>1.049071910817976</v>
+        <v>1.046000906162216</v>
       </c>
       <c r="L4">
-        <v>1.020410053271429</v>
+        <v>1.020421146136295</v>
       </c>
       <c r="M4">
-        <v>1.03109164490368</v>
+        <v>1.031095643084156</v>
       </c>
       <c r="N4">
-        <v>1.01175217042077</v>
+        <v>1.01343935229898</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033179304119836</v>
+        <v>1.033182468444177</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045766579116436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043603667193162</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024131315532666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006644294204325</v>
+        <v>1.006614520873497</v>
       </c>
       <c r="D5">
-        <v>1.039986661480232</v>
+        <v>1.036823400467454</v>
       </c>
       <c r="E5">
-        <v>1.011491848038121</v>
+        <v>1.011468542259839</v>
       </c>
       <c r="F5">
-        <v>1.022183020806676</v>
+        <v>1.022170156093453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0515956389933</v>
+        <v>1.050379189817029</v>
       </c>
       <c r="J5">
-        <v>1.025428806241894</v>
+        <v>1.02539976064749</v>
       </c>
       <c r="K5">
-        <v>1.049412177699287</v>
+        <v>1.046282836889947</v>
       </c>
       <c r="L5">
-        <v>1.021232354665375</v>
+        <v>1.021209315476326</v>
       </c>
       <c r="M5">
-        <v>1.031802811418458</v>
+        <v>1.031790090095657</v>
       </c>
       <c r="N5">
-        <v>1.012039687255694</v>
+        <v>1.01365711892138</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033742150301999</v>
+        <v>1.033732082132302</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046014285144101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043810847020406</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024178739845376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006863085890821</v>
+        <v>1.006826613179665</v>
       </c>
       <c r="D6">
-        <v>1.040087269261998</v>
+        <v>1.036913888297018</v>
       </c>
       <c r="E6">
-        <v>1.011669890223487</v>
+        <v>1.011640596707972</v>
       </c>
       <c r="F6">
-        <v>1.022340777446936</v>
+        <v>1.022325018961058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0516504376602</v>
+        <v>1.050428655198144</v>
       </c>
       <c r="J6">
-        <v>1.025566687354839</v>
+        <v>1.02553110144199</v>
       </c>
       <c r="K6">
-        <v>1.049475932291446</v>
+        <v>1.046336427178461</v>
       </c>
       <c r="L6">
-        <v>1.021371237453975</v>
+        <v>1.021342277437123</v>
       </c>
       <c r="M6">
-        <v>1.031922203721227</v>
+        <v>1.031906620061181</v>
       </c>
       <c r="N6">
-        <v>1.012089224915007</v>
+        <v>1.01369451301626</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033836642195206</v>
+        <v>1.03382430865761</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046068038414026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043858294011313</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024188625918779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005362694835808</v>
+        <v>1.005385262020233</v>
       </c>
       <c r="D7">
-        <v>1.039453293188816</v>
+        <v>1.036349539260249</v>
       </c>
       <c r="E7">
-        <v>1.010454162924664</v>
+        <v>1.010477581873124</v>
       </c>
       <c r="F7">
-        <v>1.021256956720377</v>
+        <v>1.021266711212443</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051290936012081</v>
+        <v>1.050110247472297</v>
       </c>
       <c r="J7">
-        <v>1.024624169184093</v>
+        <v>1.024646167606286</v>
       </c>
       <c r="K7">
-        <v>1.049094925092033</v>
+        <v>1.046025330653734</v>
       </c>
       <c r="L7">
-        <v>1.020425072135583</v>
+        <v>1.020448215733186</v>
       </c>
       <c r="M7">
-        <v>1.031102506003437</v>
+        <v>1.03111214877981</v>
       </c>
       <c r="N7">
-        <v>1.011760142270848</v>
+        <v>1.013475967657993</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033187900040507</v>
+        <v>1.033195531729898</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045802801916794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043642912142845</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024138368309712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9989361408067395</v>
+        <v>0.9991836168266522</v>
       </c>
       <c r="D8">
-        <v>1.036738838198286</v>
+        <v>1.03392765098764</v>
       </c>
       <c r="E8">
-        <v>1.005256941352923</v>
+        <v>1.005480028843661</v>
       </c>
       <c r="F8">
-        <v>1.016638979218985</v>
+        <v>1.016746137511548</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049723038841991</v>
+        <v>1.048707393401371</v>
       </c>
       <c r="J8">
-        <v>1.020575248429361</v>
+        <v>1.020815527156599</v>
       </c>
       <c r="K8">
-        <v>1.047443133083052</v>
+        <v>1.044666855030275</v>
       </c>
       <c r="L8">
-        <v>1.016366171793083</v>
+        <v>1.016586277822452</v>
       </c>
       <c r="M8">
-        <v>1.027598184853535</v>
+        <v>1.027703950693875</v>
       </c>
       <c r="N8">
-        <v>1.010342853674245</v>
+        <v>1.012466028521284</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030414430794522</v>
+        <v>1.030498138553846</v>
       </c>
       <c r="Q8">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044639393194948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042687359789455</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023909654832587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9869838938552905</v>
+        <v>0.9876137685147309</v>
       </c>
       <c r="D9">
-        <v>1.031736180149977</v>
+        <v>1.029461955026985</v>
       </c>
       <c r="E9">
-        <v>0.9956362963683897</v>
+        <v>0.9961958526904287</v>
       </c>
       <c r="F9">
-        <v>1.008146807512473</v>
+        <v>1.00842041415495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046714431157738</v>
+        <v>1.045989174849526</v>
       </c>
       <c r="J9">
-        <v>1.013004807919275</v>
+        <v>1.013611628376958</v>
       </c>
       <c r="K9">
-        <v>1.044334520606733</v>
+        <v>1.042094456368841</v>
       </c>
       <c r="L9">
-        <v>1.008800570606891</v>
+        <v>1.009350952534892</v>
       </c>
       <c r="M9">
-        <v>1.021109076941043</v>
+        <v>1.021378337460768</v>
       </c>
       <c r="N9">
-        <v>1.007685207824648</v>
+        <v>1.010468170400073</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025278644654368</v>
+        <v>1.025491750897197</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042438284921622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04086509115785</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023449499546745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9787412652055532</v>
+        <v>0.9797081980460051</v>
       </c>
       <c r="D10">
-        <v>1.028317804364761</v>
+        <v>1.026431313918127</v>
       </c>
       <c r="E10">
-        <v>0.9890587447773832</v>
+        <v>0.9899173159099039</v>
       </c>
       <c r="F10">
-        <v>1.002589914311417</v>
+        <v>1.003010399392811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044608452716043</v>
+        <v>1.044109798110749</v>
       </c>
       <c r="J10">
-        <v>1.007824482624224</v>
+        <v>1.00875069498943</v>
       </c>
       <c r="K10">
-        <v>1.042193926837879</v>
+        <v>1.04033919677264</v>
       </c>
       <c r="L10">
-        <v>1.003628397492912</v>
+        <v>1.004471034308566</v>
       </c>
       <c r="M10">
-        <v>1.016912563978013</v>
+        <v>1.017325512046568</v>
       </c>
       <c r="N10">
-        <v>1.005883306553271</v>
+        <v>1.009250251463096</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022009793012866</v>
+        <v>1.022336601112413</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040941461721114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039642407135204</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023128756428294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9766179222798194</v>
+        <v>0.9777656191066356</v>
       </c>
       <c r="D11">
-        <v>1.027229764867277</v>
+        <v>1.025468683338693</v>
       </c>
       <c r="E11">
-        <v>0.9875483968845914</v>
+        <v>0.9885656885729754</v>
       </c>
       <c r="F11">
-        <v>1.00301668493275</v>
+        <v>1.003511926716826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044220496651807</v>
+        <v>1.043826359262605</v>
       </c>
       <c r="J11">
-        <v>1.00699684550259</v>
+        <v>1.008093547306528</v>
       </c>
       <c r="K11">
-        <v>1.041655810483902</v>
+        <v>1.039925766427475</v>
       </c>
       <c r="L11">
-        <v>1.002709015492638</v>
+        <v>1.003706509535554</v>
       </c>
       <c r="M11">
-        <v>1.017881934350608</v>
+        <v>1.018367915760592</v>
       </c>
       <c r="N11">
-        <v>1.005742009420125</v>
+        <v>1.009415618676406</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023220983905224</v>
+        <v>1.023605389827784</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04059359584268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039385938481609</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02308833731114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763693186799905</v>
+        <v>0.9775682993975351</v>
       </c>
       <c r="D12">
-        <v>1.02695016627439</v>
+        <v>1.025212817693852</v>
       </c>
       <c r="E12">
-        <v>0.9874841398426648</v>
+        <v>0.9885430466880533</v>
       </c>
       <c r="F12">
-        <v>1.0041489370568</v>
+        <v>1.004663371210598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04426850840611</v>
+        <v>1.043904956986289</v>
       </c>
       <c r="J12">
-        <v>1.00720856992348</v>
+        <v>1.008353312838061</v>
       </c>
       <c r="K12">
-        <v>1.04157863791877</v>
+        <v>1.039872412731763</v>
       </c>
       <c r="L12">
-        <v>1.002855117465649</v>
+        <v>1.003893085478867</v>
       </c>
       <c r="M12">
-        <v>1.019197079324893</v>
+        <v>1.019701770440889</v>
       </c>
       <c r="N12">
-        <v>1.005929990965338</v>
+        <v>1.00967525603907</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024592514639628</v>
+        <v>1.024991580506396</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040539033109186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039348216890372</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023099413560171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9775415446667739</v>
+        <v>0.9786747793174153</v>
       </c>
       <c r="D13">
-        <v>1.027291476665531</v>
+        <v>1.025496750909063</v>
       </c>
       <c r="E13">
-        <v>0.9885228417170939</v>
+        <v>0.9895172713376489</v>
       </c>
       <c r="F13">
-        <v>1.005917106336751</v>
+        <v>1.006401130750177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044662162282213</v>
+        <v>1.044266902904456</v>
       </c>
       <c r="J13">
-        <v>1.008231542438669</v>
+        <v>1.009313872447292</v>
       </c>
       <c r="K13">
-        <v>1.041871506205958</v>
+        <v>1.040108799139176</v>
       </c>
       <c r="L13">
-        <v>1.003828493928318</v>
+        <v>1.00480337835009</v>
       </c>
       <c r="M13">
-        <v>1.020888159062949</v>
+        <v>1.0213630886811</v>
       </c>
       <c r="N13">
-        <v>1.006386611585393</v>
+        <v>1.009986523423776</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026209672937086</v>
+        <v>1.026585109602651</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040743623858897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039512626177576</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023157922419112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9789807222183943</v>
+        <v>0.9800185752476159</v>
       </c>
       <c r="D14">
-        <v>1.02780911319738</v>
+        <v>1.025939549556996</v>
       </c>
       <c r="E14">
-        <v>0.9897279124702324</v>
+        <v>0.9906331871956298</v>
       </c>
       <c r="F14">
-        <v>1.007408467649336</v>
+        <v>1.00785061860225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045086392957508</v>
+        <v>1.044642521814722</v>
       </c>
       <c r="J14">
-        <v>1.009291792802786</v>
+        <v>1.010283775865987</v>
       </c>
       <c r="K14">
-        <v>1.042241285662339</v>
+        <v>1.040404670588812</v>
       </c>
       <c r="L14">
-        <v>1.004863407554338</v>
+        <v>1.005751140427982</v>
       </c>
       <c r="M14">
-        <v>1.022208797964236</v>
+        <v>1.022642763683086</v>
       </c>
       <c r="N14">
-        <v>1.006819526211081</v>
+        <v>1.010224278507983</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027428645062223</v>
+        <v>1.027771652467317</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041006480065935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039723363873268</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023220278294166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9796572868488003</v>
+        <v>0.9806476611175127</v>
       </c>
       <c r="D15">
-        <v>1.028079794224663</v>
+        <v>1.026174082097688</v>
       </c>
       <c r="E15">
-        <v>0.9902775766054364</v>
+        <v>0.9911394750034236</v>
       </c>
       <c r="F15">
-        <v>1.007961710644111</v>
+        <v>1.008383413240377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045272543548757</v>
+        <v>1.044803739347474</v>
       </c>
       <c r="J15">
-        <v>1.009745157670391</v>
+        <v>1.010692171941503</v>
       </c>
       <c r="K15">
-        <v>1.042421809727123</v>
+        <v>1.040549433226325</v>
       </c>
       <c r="L15">
-        <v>1.00531224068495</v>
+        <v>1.006157575887166</v>
       </c>
       <c r="M15">
-        <v>1.02266392446566</v>
+        <v>1.023077884722712</v>
       </c>
       <c r="N15">
-        <v>1.00699130190884</v>
+        <v>1.010303192325181</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027826235156396</v>
+        <v>1.028153421547288</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04113994064228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039832114805407</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023248825060346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.982889088579742</v>
+        <v>0.9836552195831567</v>
       </c>
       <c r="D16">
-        <v>1.029454151873478</v>
+        <v>1.027376379018336</v>
       </c>
       <c r="E16">
-        <v>0.9928264987404261</v>
+        <v>0.9934883218739609</v>
       </c>
       <c r="F16">
-        <v>1.009999686060582</v>
+        <v>1.010326026222424</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046091483427775</v>
+        <v>1.045498838728262</v>
       </c>
       <c r="J16">
-        <v>1.011719414163484</v>
+        <v>1.012453760256047</v>
       </c>
       <c r="K16">
-        <v>1.043276037459169</v>
+        <v>1.041233052406878</v>
       </c>
       <c r="L16">
-        <v>1.00728942965283</v>
+        <v>1.007939123736498</v>
       </c>
       <c r="M16">
-        <v>1.024154555714727</v>
+        <v>1.024475173198764</v>
       </c>
       <c r="N16">
-        <v>1.007657825139651</v>
+        <v>1.010559196236114</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.02896536471011</v>
+        <v>1.029218782152351</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041747045621346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040318900104532</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023374193125345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9846280835857493</v>
+        <v>0.9852868655256134</v>
       </c>
       <c r="D17">
-        <v>1.030243739095679</v>
+        <v>1.028075013207203</v>
       </c>
       <c r="E17">
-        <v>0.9941645126799432</v>
+        <v>0.9947322967250752</v>
       </c>
       <c r="F17">
-        <v>1.010790811972284</v>
+        <v>1.011071875574819</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046499868576028</v>
+        <v>1.045842533873595</v>
       </c>
       <c r="J17">
-        <v>1.01269007329058</v>
+        <v>1.013322430152691</v>
       </c>
       <c r="K17">
-        <v>1.043741481843914</v>
+        <v>1.041608063455329</v>
       </c>
       <c r="L17">
-        <v>1.008275638651891</v>
+        <v>1.008833322601841</v>
       </c>
       <c r="M17">
-        <v>1.024612248044115</v>
+        <v>1.02488852027109</v>
       </c>
       <c r="N17">
-        <v>1.00794663496203</v>
+        <v>1.010665535087276</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029196917818917</v>
+        <v>1.029415306655924</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042078697016475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040586864305738</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023438147833335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.98518376557164</v>
+        <v>0.9858075513116952</v>
       </c>
       <c r="D18">
-        <v>1.030576455391519</v>
+        <v>1.028376929035033</v>
       </c>
       <c r="E18">
-        <v>0.9945243283899222</v>
+        <v>0.9950638311494071</v>
       </c>
       <c r="F18">
-        <v>1.010402933734344</v>
+        <v>1.010669958543324</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046568306790109</v>
+        <v>1.045884987941908</v>
       </c>
       <c r="J18">
-        <v>1.012818439127419</v>
+        <v>1.013417666372283</v>
       </c>
       <c r="K18">
-        <v>1.043887476697884</v>
+        <v>1.04172317993794</v>
       </c>
       <c r="L18">
-        <v>1.00843825321971</v>
+        <v>1.008968316771684</v>
       </c>
       <c r="M18">
-        <v>1.024044482964855</v>
+        <v>1.024307021677668</v>
       </c>
       <c r="N18">
-        <v>1.00790755929317</v>
+        <v>1.01058819114173</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028507835340799</v>
+        <v>1.028715412109022</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042170372749911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040655562633342</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023446671860447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9846125464661148</v>
+        <v>0.9852606927811445</v>
       </c>
       <c r="D19">
-        <v>1.030503275164191</v>
+        <v>1.028326729557449</v>
       </c>
       <c r="E19">
-        <v>0.9939525223634318</v>
+        <v>0.9945173154470112</v>
       </c>
       <c r="F19">
-        <v>1.008826453603939</v>
+        <v>1.009105361640001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046318492989581</v>
+        <v>1.045642937654335</v>
       </c>
       <c r="J19">
-        <v>1.012131637806399</v>
+        <v>1.012754375646956</v>
       </c>
       <c r="K19">
-        <v>1.043753629949761</v>
+        <v>1.041611765596621</v>
       </c>
       <c r="L19">
-        <v>1.007811357222113</v>
+        <v>1.008366307436714</v>
       </c>
       <c r="M19">
-        <v>1.022430814952628</v>
+        <v>1.022705043608796</v>
       </c>
       <c r="N19">
-        <v>1.007563015304506</v>
+        <v>1.010316096459493</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026902061402162</v>
+        <v>1.027118953484037</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042082085830042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040583766590025</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023406780661851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9808986054319825</v>
+        <v>0.9817337013373689</v>
       </c>
       <c r="D20">
-        <v>1.029248547967006</v>
+        <v>1.027247772914437</v>
       </c>
       <c r="E20">
-        <v>0.9907829747957645</v>
+        <v>0.9915214514473057</v>
       </c>
       <c r="F20">
-        <v>1.004048565444258</v>
+        <v>1.004411601417051</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045174939561573</v>
+        <v>1.044600644181403</v>
       </c>
       <c r="J20">
-        <v>1.009186243552328</v>
+        <v>1.009987382246575</v>
       </c>
       <c r="K20">
-        <v>1.042795881292659</v>
+        <v>1.040827846322449</v>
       </c>
       <c r="L20">
-        <v>1.00498985406599</v>
+        <v>1.005715042462642</v>
       </c>
       <c r="M20">
-        <v>1.018020597323033</v>
+        <v>1.018377319172722</v>
       </c>
       <c r="N20">
-        <v>1.00636702703751</v>
+        <v>1.009493482989252</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022875940426939</v>
+        <v>1.023158254381118</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041408820267662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040033794384899</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023222964398214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9743614901589635</v>
+        <v>0.9756766418134485</v>
       </c>
       <c r="D21">
-        <v>1.026593023532206</v>
+        <v>1.024949999560795</v>
       </c>
       <c r="E21">
-        <v>0.9855466082529973</v>
+        <v>0.9867250033771496</v>
       </c>
       <c r="F21">
-        <v>0.9993017871434435</v>
+        <v>0.9998748933406156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043453071201819</v>
+        <v>1.043136138192139</v>
       </c>
       <c r="J21">
-        <v>1.004971681694285</v>
+        <v>1.006227727584258</v>
       </c>
       <c r="K21">
-        <v>1.041087509920882</v>
+        <v>1.039473617486688</v>
       </c>
       <c r="L21">
-        <v>1.000807077682673</v>
+        <v>1.001962316006584</v>
       </c>
       <c r="M21">
-        <v>1.01429639946615</v>
+        <v>1.014858636293894</v>
       </c>
       <c r="N21">
-        <v>1.004873013076185</v>
+        <v>1.008883144123605</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.019886728638576</v>
+        <v>1.020331714462669</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040204154297282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039079842507966</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022968713085706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9702290512826061</v>
+        <v>0.9718532295522304</v>
       </c>
       <c r="D22">
-        <v>1.02489838931025</v>
+        <v>1.023484200413648</v>
       </c>
       <c r="E22">
-        <v>0.9822538990467282</v>
+        <v>0.983716569883301</v>
       </c>
       <c r="F22">
-        <v>0.9964335500373355</v>
+        <v>0.9971420317334324</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042360318595159</v>
+        <v>1.042208972701747</v>
       </c>
       <c r="J22">
-        <v>1.002333906970699</v>
+        <v>1.003880524057413</v>
       </c>
       <c r="K22">
-        <v>1.039992231004278</v>
+        <v>1.038604357728505</v>
       </c>
       <c r="L22">
-        <v>0.9981853018553731</v>
+        <v>0.9996176566915449</v>
       </c>
       <c r="M22">
-        <v>1.012075991634118</v>
+        <v>1.012770318939677</v>
       </c>
       <c r="N22">
-        <v>1.003941907591375</v>
+        <v>1.008505611411759</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018129370188073</v>
+        <v>1.018678901246046</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03941634437314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038450522017966</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022802974123341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9724292209134623</v>
+        <v>0.9738639388021639</v>
       </c>
       <c r="D23">
-        <v>1.025784584445894</v>
+        <v>1.024243537993501</v>
       </c>
       <c r="E23">
-        <v>0.9840043182638846</v>
+        <v>0.9852919784022396</v>
       </c>
       <c r="F23">
-        <v>0.9979595438779241</v>
+        <v>0.9985850482979463</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042939402062929</v>
+        <v>1.042690378573799</v>
       </c>
       <c r="J23">
-        <v>1.003738026864262</v>
+        <v>1.005106385761719</v>
       </c>
       <c r="K23">
-        <v>1.040560584908859</v>
+        <v>1.039047495996391</v>
       </c>
       <c r="L23">
-        <v>0.9995791206302409</v>
+        <v>1.000840829873295</v>
       </c>
       <c r="M23">
-        <v>1.013257779736116</v>
+        <v>1.013871125104284</v>
       </c>
       <c r="N23">
-        <v>1.004434013269184</v>
+        <v>1.008655388318453</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019064705832171</v>
+        <v>1.019550142410608</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039808623393957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038753320992856</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022885436141759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9808493897893743</v>
+        <v>0.9816872992020093</v>
       </c>
       <c r="D24">
-        <v>1.029226879678994</v>
+        <v>1.02722945391281</v>
       </c>
       <c r="E24">
-        <v>0.9907245849105887</v>
+        <v>0.9914664704727171</v>
       </c>
       <c r="F24">
-        <v>1.003832507938508</v>
+        <v>1.004197054760039</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045140862738863</v>
+        <v>1.044567239911328</v>
       </c>
       <c r="J24">
-        <v>1.009105091456534</v>
+        <v>1.009908972653676</v>
       </c>
       <c r="K24">
-        <v>1.042759468729018</v>
+        <v>1.040794688069814</v>
       </c>
       <c r="L24">
-        <v>1.004916569021796</v>
+        <v>1.005645120266313</v>
       </c>
       <c r="M24">
-        <v>1.017792653065201</v>
+        <v>1.018150864135816</v>
       </c>
       <c r="N24">
-        <v>1.006320513715726</v>
+        <v>1.009454861324263</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022653855441423</v>
+        <v>1.022937362681224</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041355872151312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039980450372601</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023210634907238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901567686717022</v>
+        <v>0.9906649852524374</v>
       </c>
       <c r="D25">
-        <v>1.033081257265694</v>
+        <v>1.030658265009062</v>
       </c>
       <c r="E25">
-        <v>0.9981870060735598</v>
+        <v>0.998638134624626</v>
       </c>
       <c r="F25">
-        <v>1.010388482039282</v>
+        <v>1.010609059648951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047529833541247</v>
+        <v>1.046720265448176</v>
       </c>
       <c r="J25">
-        <v>1.015019999128787</v>
+        <v>1.015510646328095</v>
       </c>
       <c r="K25">
-        <v>1.045186851707802</v>
+        <v>1.042798588314176</v>
       </c>
       <c r="L25">
-        <v>1.010813531785398</v>
+        <v>1.011257628650404</v>
       </c>
       <c r="M25">
-        <v>1.022827642626216</v>
+        <v>1.023044886095332</v>
       </c>
       <c r="N25">
-        <v>1.008398338656251</v>
+        <v>1.010966341098684</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026638802352216</v>
+        <v>1.026810739362503</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043069292473908</v>
+        <v>1.041394149900375</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023580665898772</v>
       </c>
     </row>
   </sheetData>
